--- a/装机清单.xlsx
+++ b/装机清单.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\PublicDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E35642-B950-4228-9AC1-9EEDEDF54AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19680" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="322">
   <si>
     <t>Intel i5 9400F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1074,22 +1086,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机械键盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>固态硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z390</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1247,6 +1283,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="97"/>
   </cellXfs>
   <cellStyles count="98">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1296,58 +1333,65 @@
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1672,21 +1716,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D1">
         <v>20191031</v>
       </c>
@@ -1700,7 +1744,7 @@
         <v>20191103</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>311</v>
       </c>
@@ -1723,7 +1767,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1787,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1763,7 +1807,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1783,7 +1827,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1803,7 +1847,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1867,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>312</v>
       </c>
@@ -1843,7 +1887,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>79</v>
       </c>
@@ -1860,7 +1904,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>83</v>
       </c>
@@ -1877,7 +1921,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1894,7 +1938,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>85</v>
       </c>
@@ -1911,7 +1955,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -1928,7 +1972,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -1945,7 +1989,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>90</v>
       </c>
@@ -1962,7 +2006,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>92</v>
       </c>
@@ -1979,7 +2023,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>95</v>
       </c>
@@ -1996,7 +2040,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>97</v>
       </c>
@@ -2013,7 +2057,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>99</v>
       </c>
@@ -2030,7 +2074,7 @@
         <v>6599</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>101</v>
       </c>
@@ -2047,7 +2091,7 @@
         <v>6499</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -2064,7 +2108,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>105</v>
       </c>
@@ -2081,7 +2125,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>106</v>
       </c>
@@ -2098,7 +2142,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>109</v>
       </c>
@@ -2115,7 +2159,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>111</v>
       </c>
@@ -2132,7 +2176,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>113</v>
       </c>
@@ -2149,7 +2193,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>115</v>
       </c>
@@ -2169,7 +2213,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>117</v>
       </c>
@@ -2186,7 +2230,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>118</v>
       </c>
@@ -2203,7 +2247,7 @@
         <v>5849</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>121</v>
       </c>
@@ -2220,7 +2264,7 @@
         <v>6499</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>123</v>
       </c>
@@ -2237,7 +2281,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>125</v>
       </c>
@@ -2254,7 +2298,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>127</v>
       </c>
@@ -2271,7 +2315,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>128</v>
       </c>
@@ -2288,7 +2332,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>130</v>
       </c>
@@ -2305,7 +2349,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>133</v>
       </c>
@@ -2322,7 +2366,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>134</v>
       </c>
@@ -2339,7 +2383,7 @@
         <v>7499</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>137</v>
       </c>
@@ -2356,7 +2400,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>138</v>
       </c>
@@ -2373,7 +2417,7 @@
         <v>7299</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>141</v>
       </c>
@@ -2390,7 +2434,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>143</v>
       </c>
@@ -2407,7 +2451,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>145</v>
       </c>
@@ -2424,7 +2468,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>151</v>
       </c>
@@ -2441,7 +2485,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>150</v>
       </c>
@@ -2458,7 +2502,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>149</v>
       </c>
@@ -2475,7 +2519,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>153</v>
       </c>
@@ -2492,7 +2536,7 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>155</v>
       </c>
@@ -2509,7 +2553,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>157</v>
       </c>
@@ -2526,7 +2570,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>159</v>
       </c>
@@ -2543,7 +2587,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>163</v>
       </c>
@@ -2560,7 +2604,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>162</v>
       </c>
@@ -2577,7 +2621,7 @@
         <v>6099</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>165</v>
       </c>
@@ -2594,7 +2638,7 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>167</v>
       </c>
@@ -2611,7 +2655,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>169</v>
       </c>
@@ -2628,7 +2672,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>170</v>
       </c>
@@ -2645,7 +2689,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>173</v>
       </c>
@@ -2662,7 +2706,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>175</v>
       </c>
@@ -2679,7 +2723,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>177</v>
       </c>
@@ -2696,7 +2740,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>179</v>
       </c>
@@ -2713,7 +2757,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>181</v>
       </c>
@@ -2730,7 +2774,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>183</v>
       </c>
@@ -2747,7 +2791,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>185</v>
       </c>
@@ -2764,7 +2808,7 @@
         <v>5879</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>187</v>
       </c>
@@ -2781,7 +2825,7 @@
         <v>6699</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>189</v>
       </c>
@@ -2798,7 +2842,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>191</v>
       </c>
@@ -2815,7 +2859,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>193</v>
       </c>
@@ -2832,7 +2876,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>195</v>
       </c>
@@ -2849,7 +2893,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>197</v>
       </c>
@@ -2866,7 +2910,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>199</v>
       </c>
@@ -2883,7 +2927,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>200</v>
       </c>
@@ -2900,9 +2944,9 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2923,7 +2967,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +2987,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>13</v>
       </c>
@@ -2963,7 +3007,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>7</v>
       </c>
@@ -2983,7 +3027,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>11</v>
       </c>
@@ -3003,7 +3047,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>10</v>
       </c>
@@ -3023,7 +3067,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>12</v>
       </c>
@@ -3043,7 +3087,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>9</v>
       </c>
@@ -3063,7 +3107,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>14</v>
       </c>
@@ -3083,7 +3127,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>15</v>
       </c>
@@ -3103,7 +3147,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>16</v>
       </c>
@@ -3123,7 +3167,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>17</v>
       </c>
@@ -3143,9 +3187,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -3166,7 +3210,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>19</v>
       </c>
@@ -3186,7 +3230,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>20</v>
       </c>
@@ -3206,7 +3250,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>21</v>
       </c>
@@ -3226,7 +3270,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>22</v>
       </c>
@@ -3246,9 +3290,9 @@
         <v>499</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B88" t="s">
         <v>56</v>
@@ -3269,7 +3313,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>64</v>
       </c>
@@ -3289,7 +3333,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>59</v>
       </c>
@@ -3306,7 +3350,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>28</v>
       </c>
@@ -3326,7 +3370,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>23</v>
       </c>
@@ -3346,7 +3390,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>29</v>
       </c>
@@ -3366,7 +3410,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>62</v>
       </c>
@@ -3383,7 +3427,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>67</v>
       </c>
@@ -3403,7 +3447,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>27</v>
       </c>
@@ -3423,7 +3467,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>70</v>
       </c>
@@ -3443,7 +3487,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>24</v>
       </c>
@@ -3463,7 +3507,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>25</v>
       </c>
@@ -3483,7 +3527,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>74</v>
       </c>
@@ -3503,7 +3547,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>26</v>
       </c>
@@ -3523,124 +3567,152 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>316</v>
+      </c>
+      <c r="B105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C71" r:id="rId1"/>
-    <hyperlink ref="C72" r:id="rId2"/>
-    <hyperlink ref="C74" r:id="rId3"/>
-    <hyperlink ref="C73" r:id="rId4"/>
-    <hyperlink ref="C78" r:id="rId5"/>
-    <hyperlink ref="C76" r:id="rId6"/>
-    <hyperlink ref="C77" r:id="rId7"/>
-    <hyperlink ref="C75" r:id="rId8"/>
-    <hyperlink ref="C80" r:id="rId9"/>
-    <hyperlink ref="C79" r:id="rId10"/>
-    <hyperlink ref="C82" r:id="rId11"/>
-    <hyperlink ref="C81" r:id="rId12"/>
-    <hyperlink ref="C83" r:id="rId13"/>
-    <hyperlink ref="C84" r:id="rId14"/>
-    <hyperlink ref="C85" r:id="rId15"/>
-    <hyperlink ref="C86" r:id="rId16"/>
-    <hyperlink ref="C87" r:id="rId17"/>
-    <hyperlink ref="C88" r:id="rId18"/>
-    <hyperlink ref="C91" r:id="rId19"/>
-    <hyperlink ref="C90" r:id="rId20"/>
-    <hyperlink ref="C92" r:id="rId21"/>
-    <hyperlink ref="C94" r:id="rId22"/>
-    <hyperlink ref="C93" r:id="rId23"/>
-    <hyperlink ref="C89" r:id="rId24"/>
-    <hyperlink ref="C95" r:id="rId25"/>
-    <hyperlink ref="C96" r:id="rId26"/>
-    <hyperlink ref="C97" r:id="rId27"/>
-    <hyperlink ref="C98" r:id="rId28"/>
-    <hyperlink ref="C99" r:id="rId29"/>
-    <hyperlink ref="C100" r:id="rId30"/>
-    <hyperlink ref="C101" r:id="rId31"/>
-    <hyperlink ref="C8" r:id="rId32"/>
-    <hyperlink ref="C9" r:id="rId33"/>
-    <hyperlink ref="C10" r:id="rId34"/>
-    <hyperlink ref="C11" r:id="rId35"/>
-    <hyperlink ref="C12" r:id="rId36"/>
-    <hyperlink ref="C13" r:id="rId37"/>
-    <hyperlink ref="C14" r:id="rId38"/>
-    <hyperlink ref="C15" r:id="rId39"/>
-    <hyperlink ref="C16" r:id="rId40"/>
-    <hyperlink ref="C17" r:id="rId41"/>
-    <hyperlink ref="C18" r:id="rId42"/>
-    <hyperlink ref="C19" r:id="rId43"/>
-    <hyperlink ref="C20" r:id="rId44"/>
-    <hyperlink ref="C21" r:id="rId45"/>
-    <hyperlink ref="C22" r:id="rId46"/>
-    <hyperlink ref="C23" r:id="rId47"/>
-    <hyperlink ref="C24" r:id="rId48"/>
-    <hyperlink ref="C25" r:id="rId49"/>
-    <hyperlink ref="C26" r:id="rId50"/>
-    <hyperlink ref="C27" r:id="rId51"/>
-    <hyperlink ref="C28" r:id="rId52"/>
-    <hyperlink ref="C29" r:id="rId53"/>
-    <hyperlink ref="C30" r:id="rId54"/>
-    <hyperlink ref="C31" r:id="rId55"/>
-    <hyperlink ref="C32" r:id="rId56"/>
-    <hyperlink ref="C33" r:id="rId57"/>
-    <hyperlink ref="C34" r:id="rId58"/>
-    <hyperlink ref="C35" r:id="rId59"/>
-    <hyperlink ref="C36" r:id="rId60"/>
-    <hyperlink ref="C37" r:id="rId61"/>
-    <hyperlink ref="C38" r:id="rId62"/>
-    <hyperlink ref="C39" r:id="rId63"/>
-    <hyperlink ref="C40" r:id="rId64"/>
-    <hyperlink ref="C41" r:id="rId65"/>
-    <hyperlink ref="C42" r:id="rId66"/>
-    <hyperlink ref="C43" r:id="rId67"/>
-    <hyperlink ref="C44" r:id="rId68"/>
-    <hyperlink ref="C45" r:id="rId69"/>
-    <hyperlink ref="C46" r:id="rId70"/>
-    <hyperlink ref="C47" r:id="rId71"/>
-    <hyperlink ref="C48" r:id="rId72"/>
-    <hyperlink ref="C49" r:id="rId73"/>
-    <hyperlink ref="C50" r:id="rId74"/>
-    <hyperlink ref="C51" r:id="rId75"/>
-    <hyperlink ref="C52" r:id="rId76"/>
-    <hyperlink ref="C53" r:id="rId77"/>
-    <hyperlink ref="C54" r:id="rId78"/>
-    <hyperlink ref="C55" r:id="rId79"/>
-    <hyperlink ref="C56" r:id="rId80"/>
-    <hyperlink ref="C57" r:id="rId81"/>
-    <hyperlink ref="C58" r:id="rId82"/>
-    <hyperlink ref="C59" r:id="rId83"/>
-    <hyperlink ref="C60" r:id="rId84"/>
-    <hyperlink ref="C61" r:id="rId85"/>
-    <hyperlink ref="C62" r:id="rId86"/>
-    <hyperlink ref="C63" r:id="rId87"/>
-    <hyperlink ref="C64" r:id="rId88"/>
-    <hyperlink ref="C65" r:id="rId89"/>
-    <hyperlink ref="C66" r:id="rId90"/>
-    <hyperlink ref="C67" r:id="rId91"/>
-    <hyperlink ref="C68" r:id="rId92"/>
-    <hyperlink ref="C69" r:id="rId93"/>
-    <hyperlink ref="C70" r:id="rId94"/>
-    <hyperlink ref="C2" r:id="rId95"/>
-    <hyperlink ref="C3" r:id="rId96"/>
-    <hyperlink ref="C4" r:id="rId97"/>
-    <hyperlink ref="C5" r:id="rId98"/>
-    <hyperlink ref="C6" r:id="rId99"/>
-    <hyperlink ref="C7" r:id="rId100"/>
+    <hyperlink ref="C71" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C72" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C74" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C73" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C78" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C76" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C77" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C75" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C80" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C79" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C82" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C81" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C83" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C84" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C85" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C86" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C87" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C88" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C91" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C90" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C92" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C94" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C93" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C89" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C95" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C96" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C97" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C98" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C99" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C100" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C101" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C8" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C13" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C19" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C20" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C21" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C22" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C23" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C24" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C25" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C28" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C33" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C34" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C35" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C37" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C38" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C39" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C40" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C41" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C42" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C43" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C44" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C45" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C46" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C47" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C48" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C49" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C50" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C51" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C52" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C53" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C54" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C55" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C56" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C57" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C58" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C59" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C60" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C61" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C62" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C63" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C64" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C65" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C66" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C67" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C68" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C69" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C70" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C2" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C3" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C4" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C5" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C6" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C7" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3653,14 +3725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
@@ -3668,7 +3740,7 @@
     <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3686,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3725,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3746,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3767,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3788,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -3809,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3830,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -3851,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -3872,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -3893,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -3914,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -3935,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -3956,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -3977,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -3998,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -4019,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -4040,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -4061,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -4082,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -4103,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -4124,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -4145,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -4166,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -4187,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -4208,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -4229,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -4250,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -4271,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -4292,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -4313,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -4334,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -4355,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -4376,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -4397,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -4418,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -4439,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -4460,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -4481,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -4502,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -4523,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -4544,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -4565,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -4586,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -4607,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -4628,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -4649,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>159</v>
       </c>
@@ -4670,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -4691,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -4712,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -4733,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -4754,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>169</v>
       </c>
@@ -4775,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -4796,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>173</v>
       </c>
@@ -4817,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -4838,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -4859,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>179</v>
       </c>
@@ -4880,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -4901,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -4922,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -4943,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -4964,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -4985,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -5006,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -5027,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -5048,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -5069,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -5090,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -5111,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -5132,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5153,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5174,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -5195,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -5216,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -5237,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -5258,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -5279,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -5300,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -5321,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -5342,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5363,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -5384,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -5405,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -5426,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -5447,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -5468,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>56</v>
       </c>
@@ -5489,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -5510,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -5531,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -5552,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -5573,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -5594,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -5615,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>67</v>
       </c>
@@ -5636,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -5657,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -5678,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -5699,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -5720,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -5741,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -5762,12 +5834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C101" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C102" t="s">
         <v>303</v>
       </c>
@@ -5775,109 +5847,109 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B70" r:id="rId1"/>
-    <hyperlink ref="B71" r:id="rId2"/>
-    <hyperlink ref="B73" r:id="rId3"/>
-    <hyperlink ref="B72" r:id="rId4"/>
-    <hyperlink ref="B77" r:id="rId5"/>
-    <hyperlink ref="B75" r:id="rId6"/>
-    <hyperlink ref="B76" r:id="rId7"/>
-    <hyperlink ref="B74" r:id="rId8"/>
-    <hyperlink ref="B79" r:id="rId9"/>
-    <hyperlink ref="B78" r:id="rId10"/>
-    <hyperlink ref="B81" r:id="rId11"/>
-    <hyperlink ref="B80" r:id="rId12"/>
-    <hyperlink ref="B82" r:id="rId13"/>
-    <hyperlink ref="B83" r:id="rId14"/>
-    <hyperlink ref="B84" r:id="rId15"/>
-    <hyperlink ref="B85" r:id="rId16"/>
-    <hyperlink ref="B86" r:id="rId17"/>
-    <hyperlink ref="B87" r:id="rId18"/>
-    <hyperlink ref="B90" r:id="rId19"/>
-    <hyperlink ref="B89" r:id="rId20"/>
-    <hyperlink ref="B91" r:id="rId21"/>
-    <hyperlink ref="B93" r:id="rId22"/>
-    <hyperlink ref="B92" r:id="rId23"/>
-    <hyperlink ref="B88" r:id="rId24"/>
-    <hyperlink ref="B94" r:id="rId25"/>
-    <hyperlink ref="B95" r:id="rId26"/>
-    <hyperlink ref="B96" r:id="rId27"/>
-    <hyperlink ref="B97" r:id="rId28"/>
-    <hyperlink ref="B98" r:id="rId29"/>
-    <hyperlink ref="B99" r:id="rId30"/>
-    <hyperlink ref="B100" r:id="rId31"/>
-    <hyperlink ref="B7" r:id="rId32"/>
-    <hyperlink ref="B8" r:id="rId33"/>
-    <hyperlink ref="B9" r:id="rId34"/>
-    <hyperlink ref="B10" r:id="rId35"/>
-    <hyperlink ref="B11" r:id="rId36"/>
-    <hyperlink ref="B12" r:id="rId37"/>
-    <hyperlink ref="B13" r:id="rId38"/>
-    <hyperlink ref="B14" r:id="rId39"/>
-    <hyperlink ref="B15" r:id="rId40"/>
-    <hyperlink ref="B16" r:id="rId41"/>
-    <hyperlink ref="B17" r:id="rId42"/>
-    <hyperlink ref="B18" r:id="rId43"/>
-    <hyperlink ref="B19" r:id="rId44"/>
-    <hyperlink ref="B20" r:id="rId45"/>
-    <hyperlink ref="B21" r:id="rId46"/>
-    <hyperlink ref="B22" r:id="rId47"/>
-    <hyperlink ref="B23" r:id="rId48"/>
-    <hyperlink ref="B24" r:id="rId49"/>
-    <hyperlink ref="B25" r:id="rId50"/>
-    <hyperlink ref="B26" r:id="rId51"/>
-    <hyperlink ref="B27" r:id="rId52"/>
-    <hyperlink ref="B28" r:id="rId53"/>
-    <hyperlink ref="B29" r:id="rId54"/>
-    <hyperlink ref="B30" r:id="rId55"/>
-    <hyperlink ref="B31" r:id="rId56"/>
-    <hyperlink ref="B32" r:id="rId57"/>
-    <hyperlink ref="B33" r:id="rId58"/>
-    <hyperlink ref="B34" r:id="rId59"/>
-    <hyperlink ref="B35" r:id="rId60"/>
-    <hyperlink ref="B36" r:id="rId61"/>
-    <hyperlink ref="B37" r:id="rId62"/>
-    <hyperlink ref="B38" r:id="rId63"/>
-    <hyperlink ref="B39" r:id="rId64"/>
-    <hyperlink ref="B40" r:id="rId65"/>
-    <hyperlink ref="B41" r:id="rId66"/>
-    <hyperlink ref="B42" r:id="rId67"/>
-    <hyperlink ref="B43" r:id="rId68"/>
-    <hyperlink ref="B44" r:id="rId69"/>
-    <hyperlink ref="B45" r:id="rId70"/>
-    <hyperlink ref="B46" r:id="rId71"/>
-    <hyperlink ref="B47" r:id="rId72"/>
-    <hyperlink ref="B48" r:id="rId73"/>
-    <hyperlink ref="B49" r:id="rId74"/>
-    <hyperlink ref="B50" r:id="rId75"/>
-    <hyperlink ref="B51" r:id="rId76"/>
-    <hyperlink ref="B52" r:id="rId77"/>
-    <hyperlink ref="B53" r:id="rId78"/>
-    <hyperlink ref="B54" r:id="rId79"/>
-    <hyperlink ref="B55" r:id="rId80"/>
-    <hyperlink ref="B56" r:id="rId81"/>
-    <hyperlink ref="B57" r:id="rId82"/>
-    <hyperlink ref="B58" r:id="rId83"/>
-    <hyperlink ref="B59" r:id="rId84"/>
-    <hyperlink ref="B60" r:id="rId85"/>
-    <hyperlink ref="B61" r:id="rId86"/>
-    <hyperlink ref="B62" r:id="rId87"/>
-    <hyperlink ref="B63" r:id="rId88"/>
-    <hyperlink ref="B64" r:id="rId89"/>
-    <hyperlink ref="B65" r:id="rId90"/>
-    <hyperlink ref="B66" r:id="rId91"/>
-    <hyperlink ref="B67" r:id="rId92"/>
-    <hyperlink ref="B68" r:id="rId93"/>
-    <hyperlink ref="B69" r:id="rId94"/>
-    <hyperlink ref="B1" r:id="rId95"/>
-    <hyperlink ref="B2" r:id="rId96"/>
-    <hyperlink ref="B3" r:id="rId97"/>
-    <hyperlink ref="B4" r:id="rId98"/>
-    <hyperlink ref="B5" r:id="rId99"/>
-    <hyperlink ref="B6" r:id="rId100"/>
+    <hyperlink ref="B70" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B71" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B73" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B72" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B77" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B75" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B76" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B74" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B79" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B78" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B81" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B80" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B82" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B83" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B84" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B85" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B86" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B87" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B90" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B89" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B91" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B93" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B92" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B88" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B94" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B95" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B96" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B97" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B98" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B99" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B100" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B7" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B8" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B9" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B10" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B11" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B12" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B13" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B14" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B15" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B16" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B17" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B18" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B19" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B20" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B21" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B22" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B23" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B24" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B25" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B26" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B27" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B29" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B30" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B31" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B32" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B33" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B34" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B35" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B36" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B37" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="B38" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B39" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="B40" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="B41" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="B42" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B43" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="B44" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="B45" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="B46" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="B47" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="B48" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="B49" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="B50" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="B51" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="B52" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="B53" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="B54" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B55" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="B56" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="B57" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="B58" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="B59" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="B60" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="B61" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="B62" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="B63" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="B64" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="B65" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="B66" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="B67" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="B68" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="B69" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="B1" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="B2" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="B3" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="B4" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="B5" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="B6" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId101"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/装机清单.xlsx
+++ b/装机清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\PublicDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F24C7E-75F1-434D-9DC2-F5E813C50EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26680" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置清单" sheetId="11" r:id="rId1"/>
@@ -20,25 +26,25 @@
     <sheet name="电源" sheetId="17" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">显卡!$A$1:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">显卡!$A$1:$D$29</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="201">
   <si>
     <t>Intel i5 9400F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西部数据 1T M.2(NVMe) Black SN750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三星 500G M.2(NVMe) 970 EVO Plus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,13 +209,6 @@
     <t>https://item.jd.com/7234518.html</t>
   </si>
   <si>
-    <t>https://item.jd.com/7234468.html</t>
-  </si>
-  <si>
-    <t>三星 1T M.2(NVMe) 970 EVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.jd.com/7233972.html</t>
   </si>
   <si>
@@ -230,16 +225,6 @@
     <t>https://item.jd.com/100002945641.html</t>
   </si>
   <si>
-    <t>https://item.jd.com/100002206075.html</t>
-  </si>
-  <si>
-    <t>西部数据 1T M.2(NVMe) Black系列 SN750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100004703834.html</t>
-  </si>
-  <si>
     <t>https://item.jd.com/100002673918.html</t>
   </si>
   <si>
@@ -445,14 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固态硬盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械硬盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,96 +639,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EVGA GeForce RTX 2080 Black GAMING,</t>
-  </si>
-  <si>
-    <t>EVGA GeForce RTX 2080 XC Ultra GAMING ,</t>
-  </si>
-  <si>
-    <t>华硕 DUAL-RTX2070-O8G-EVO OC ,</t>
-  </si>
-  <si>
-    <t>华硕 DUAL-RTX2070S-O8G-EVO OC 2070 SUPER ,</t>
-  </si>
-  <si>
-    <t>华硕 ROG-STRIX-RTX2070S-O8G-GAMING 2070 SUPER,</t>
-  </si>
-  <si>
-    <t>技嘉 AORUS GeForce RTX 2070 SUPER,</t>
-  </si>
-  <si>
-    <t>技嘉 AORUS GeForce RTX 2080 小雕,</t>
-  </si>
-  <si>
-    <t>技嘉 GeForce RTX 2070 GAMING OC,</t>
-  </si>
-  <si>
-    <t>技嘉 GeForce RTX 2080 GAMING OC,</t>
-  </si>
-  <si>
-    <t>技嘉 GeForce RTX 2080 SUPER WINDFORCE OC ,</t>
-  </si>
-  <si>
-    <t>铭瑄 MS-GeForce RTX2070 iCraft GM,</t>
-  </si>
-  <si>
-    <t>铭瑄 MS-GeForce RTX2080 Super iCraft,</t>
-  </si>
-  <si>
-    <t>铭瑄 MS-GeForce RTX2080 Super iCraft OC,</t>
-  </si>
-  <si>
-    <t>七彩虹 Colorful GeForce RTX 2070,</t>
-  </si>
-  <si>
-    <t>七彩虹 Colorful GeForce RTX 2080SUPER Gaming ES,</t>
-  </si>
-  <si>
-    <t>七彩虹 iGame GeForce RTX 2070,</t>
-  </si>
-  <si>
-    <t>七彩虹 iGame GeForce RTX 2070 SUPER Vulcan X OC,</t>
-  </si>
-  <si>
-    <t>七彩虹 iGame GeForce RTX 2080 RNG Edition,</t>
-  </si>
-  <si>
-    <t>七彩虹 iGame GeForce RTX 2080 SUPER Advanced OC,</t>
-  </si>
-  <si>
-    <t>索泰 RTX2070 X-GAMING G3,</t>
-  </si>
-  <si>
-    <t>微星 黑龙 GeForce RTX 2070 SUPER DUKE 暗黑龙爵,</t>
-  </si>
-  <si>
-    <t>微星 黑龙 GeForce RTX 2080 8G DUKE 龙爵,</t>
-  </si>
-  <si>
-    <t>微星 魔龙Z GeForce RTX 2070 GAMING Z,</t>
-  </si>
-  <si>
-    <t>微星 万图师 GeForce RTX 2070 VENTUS,</t>
-  </si>
-  <si>
-    <t>微星 万图师 GeForce RTX 2080 SUPER VENTUS OC,</t>
-  </si>
-  <si>
-    <t>微星 万图师 GeForce RTX 2080 VENTUS 8G V2,</t>
-  </si>
-  <si>
     <t>微星 黑龙 GeForce RTX 2080 8G DUKE 龙爵</t>
   </si>
   <si>
     <t>微星 魔龙Z GeForce RTX 2070 GAMING Z</t>
   </si>
   <si>
-    <t>Intel i7 9700KF</t>
-  </si>
-  <si>
-    <t>铭瑄 MS-GeForce RTX2080 Super iCraft OC</t>
-  </si>
-  <si>
     <t>显卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,91 +661,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铭瑄 MS-GeForce RTX2070 Super iCraft OC ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>;</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/6076598.html</t>
+  </si>
+  <si>
+    <t>机箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100003124872.html</t>
+  </si>
+  <si>
+    <t>先马 黑洞 玻璃版 电脑游戏主机箱</t>
+  </si>
+  <si>
+    <t>先马 黑洞 玻璃版 电脑游戏主机箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先马 坦克3 电脑主机箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100000400393.html</t>
+  </si>
+  <si>
+    <t>电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100004924768.html</t>
+  </si>
+  <si>
+    <t>Tt 挑战者H2 黑色 机箱水冷电脑主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航嘉 金牌600W WD600K电脑电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/1033531.html</t>
+  </si>
+  <si>
+    <t>鑫谷 额定600W GP700G黑金版电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/6828139.html</t>
+  </si>
+  <si>
+    <t>安钛克 HCG650金牌全模组 台式机电脑主机机箱电源650W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/7254027.html</t>
+  </si>
+  <si>
+    <t>安钛克 VP550铜牌 台式机电脑主机机箱电源550W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微星 MAG B365M MORTAR迫击炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel i7 9700F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铭瑄 MS-GeForce RTX2070 Super iCraft OC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">微星 B360M MORTAR迫击炮 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航嘉 金牌600W WD600K电脑电源</t>
+  </si>
+  <si>
+    <t>七彩虹 Colorful GeForce RTX 2080SUPER Gaming ES</t>
   </si>
   <si>
     <t>2070s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>微星 黑龙 GeForce RTX 2070 SUPER DUKE 暗黑龙爵</t>
-  </si>
-  <si>
-    <t>https://item.jd.com/6076598.html</t>
-  </si>
-  <si>
-    <t>机箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100003124872.html</t>
-  </si>
-  <si>
-    <t>先马 黑洞 玻璃版 电脑游戏主机箱</t>
-  </si>
-  <si>
-    <t>先马 黑洞 玻璃版 电脑游戏主机箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先马 坦克3 电脑主机箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100000400393.html</t>
-  </si>
-  <si>
-    <t>电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100004924768.html</t>
-  </si>
-  <si>
-    <t>Tt 挑战者H2 黑色 机箱水冷电脑主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航嘉 金牌600W WD600K电脑电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/1033531.html</t>
-  </si>
-  <si>
-    <t>鑫谷 额定600W GP700G黑金版电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/6828139.html</t>
-  </si>
-  <si>
-    <t>安钛克 HCG650金牌全模组 台式机电脑主机机箱电源650W</t>
-  </si>
-  <si>
-    <t>安钛克 HCG650金牌全模组 台式机电脑主机机箱电源650W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/7254027.html</t>
-  </si>
-  <si>
-    <t>安钛克 VP550铜牌 台式机电脑主机机箱电源550W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微星 MAG B365M MORTAR迫击炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1038,7 +936,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="97"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1053,8 +951,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="97" applyFill="1"/>
   </cellXfs>
   <cellStyles count="107">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1104,64 +1004,63 @@
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1497,270 +1396,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(B2,基础信息!B:P,H1,FALSE)</f>
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <f>VLOOKUP(B2,基础信息!$B:$P,$G$1,FALSE)</f>
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" t="str">
-        <f>IF(B2=G3,H3,IF(B2=G4,H4,IF(B2=G5,H5,IF(B2=G6,H6,IF(B2=G7,H7,IF(B2=G8,H8,0))))))</f>
-        <v xml:space="preserve">华硕 PRIME Z390-A </v>
+        <f>IF(B2=$F$3,$G$3,IF(B2=$F$4,$G$4,IF(B2=$F$5,$G$5,IF(B2=$F$6,$G$6,IF(B2=$F$7,$G$7,IF(B2=$F$8,$G$8,0))))))</f>
+        <v xml:space="preserve">华硕 TUF B360M-PLUS GAMING S </v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(B3,基础信息!B:P,H1,FALSE)</f>
-        <v>1699</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <f>VLOOKUP(B3,基础信息!$B:$P,$G$1,FALSE)</f>
+        <v>699</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(B4,基础信息!B:P,H1,FALSE)</f>
+        <f>VLOOKUP(B4,基础信息!$B:$P,$G$1,FALSE)</f>
         <v>479</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(H10=G11,H11,IF(H10=G12,H12,IF(H10=G13,H13,IF(H10=G14,H14,0))))</f>
-        <v>微星 黑龙 GeForce RTX 2070 SUPER DUKE 暗黑龙爵</v>
+        <f>IF($G$10=$F$11,$G$11,IF($G$10=$F$12,$G$12,IF($G$10=$F$13,$G$13,IF($G$10=$F$14,$G$14,0))))</f>
+        <v xml:space="preserve">铭瑄 MS-GeForce RTX2070 Super iCraft OC </v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(B5,基础信息!B:P,H1,FALSE)</f>
+        <f>VLOOKUP(B5,基础信息!$B:$P,$G$1,FALSE)</f>
         <v>3999</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(B6,基础信息!B:P,H1,FALSE)</f>
+        <f>VLOOKUP(B6,基础信息!$B:$P,$G$1,FALSE)</f>
         <v>249</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(B7,基础信息!$B:$P,$G$1,FALSE)</f>
+        <v>769</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(B8,基础信息!$B:$P,$G$1,FALSE)</f>
+        <v>389</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(B9,基础信息!$B:$P,$G$1,FALSE)</f>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP(B10,基础信息!$B:$P,$G$1,FALSE)</f>
+        <v>339</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7">
-        <f>VLOOKUP(B7,基础信息!B:P,H1,FALSE)</f>
-        <v>769</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8">
-        <f>VLOOKUP(B8,基础信息!B:P,H1,FALSE)</f>
-        <v>389</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9">
-        <f>VLOOKUP(B9,基础信息!B:P,H1,FALSE)</f>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10">
-        <f>VLOOKUP(B10,基础信息!B:P,H1,FALSE)</f>
-        <v>649</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C11">
         <f>SUM(C2:C10)</f>
-        <v>11281</v>
-      </c>
-      <c r="G11" s="2">
+        <v>9671</v>
+      </c>
+      <c r="F11" s="2">
         <v>2070</v>
       </c>
-      <c r="H11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="G12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="G13" s="2">
+      <c r="G11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F13" s="2">
         <v>2080</v>
       </c>
-      <c r="H13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
       <c r="G14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="17">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+  <dataValidations count="18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"西部数据 蓝盘 1T, 西部数据 蓝盘 3T, 西部数据 蓝盘 4T, 西部数据 紫盘 1T, 西部数据 紫盘 2T, 西部数据 紫盘 3T, 西部数据 紫盘 4T,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"三星 500G M.2(NVMe) 970 EVO Plus, 三星 500G M.2(NVMe) 970 EVO, 三星 512G M.2(NVMe) 970 EVO Pro, 三星 1T M.2(NVMe) 970 EVO, 西部数据 500G M.2(NVMe) Black系列 SN750, 西部数据 500G M.2(NVMe) Blue SN500, 西部数据 500G M.2(NVMe) Black SN750, 西部数据 1T M.2(NVMe) Black系列 SN750, "</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"三星 500G M.2(NVMe) 970 EVO Plus, 三星 500G M.2(NVMe) 970 EVO, 三星 512G M.2(NVMe) 970 EVO Pro, 西部数据 500G M.2(NVMe) Black系列 SN750, 西部数据 500G M.2(NVMe) Blue SN500, 西部数据 500G M.2(NVMe) Black SN750,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Intel i5 9400, Intel i5 9400F, Intel i7 9700, Intel i7 9700F, Intel i7 9700K, Intel i7 9700KF,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"金士顿 DDR4 2666 8G, 金士顿 DDR4 2400 8G, 金士顿 DDR4 2666 16G, 金士顿 DDR4 3200 16G, 金士顿 DDR4 2400 16G,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"九州风神 堡垒240 CPU水冷散热器, 九州风神 水元素240T CPU水冷散热器, 九州风神 大霜塔CPU散热器, 九州风神 大霜塔RGB风冷CPU散热器, 酷冷至尊 T610P CPU风冷散热器,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"微星 MAG B365M MORTAR迫击炮, 技嘉 B365 M AORUS ELITE “小雕” , 微星 B360M MORTAR迫击炮 , 华硕 TUF B360M-PLUS GAMING S ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"华硕 TUF B360M-PLUS GAMING S , 微星 MAG B365M MORTAR迫击炮, 技嘉 B365 M AORUS ELITE “小雕” , 微星 B360M MORTAR迫击炮 , 华硕 PRIME B365-PLUS,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"微星 MAG Z390 TOMAHAWK 战斧导弹, 技嘉 B365 M AORUS ELITE “小雕” , 玩家国度 ROG STRIX B365-G GAMING, 华硕 TUF B360M-PLUS GAMING S ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 B365 M AORUS ELITE “小雕” , 华硕 TUF B360M-PLUS GAMING S , 华硕 TUF B365M-PLUS GAMING, 玩家国度  ROG STRIX B365-F GAMING ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"玩家国度 ROG STRIX Z390-E GAMING , 华硕 PRIME Z390-A , 微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 Z390 AORUS PRO WIFI “电竞专家”, 微星 MAG Z390 TOMAHAWK 战斧导弹, 微星 MEG Z390 ACE 战神板,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"华硕 PRIME Z390-A , 微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 Z390 AORUS MASTER “电竞大师”, 技嘉 Z390 AORUS PRO WIFI “电竞专家”, 玩家国度 ROG MAXIMUS XI HERO (WI-FI) , 玩家国度 ROG STRIX Z390-F GAMING,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"华硕 DUAL-RTX2070-O8G-EVO OC , 技嘉 GeForce RTX 2070 GAMING OC, 铭瑄 MS-GeForce RTX2070 iCraft GM, 七彩虹 Colorful GeForce RTX 2070, 七彩虹 iGame GeForce RTX 2070, 索泰 RTX2070 X-GAMING G3, 微星 魔龙Z GeForce RTX 2070 GAMING Z, 微星 万图师 GeForce RTX 2070 VENTUS,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"EVGA GeForce RTX 2080 Black GAMING, EVGA GeForce RTX 2080 XC Ultra GAMING , 技嘉 AORUS GeForce RTX 2080 小雕, 技嘉 GeForce RTX 2080 GAMING OC, 七彩虹 iGame GeForce RTX 2080 RNG Edition, 微星 黑龙 GeForce RTX 2080 8G DUKE 龙爵, 微星 万图师 GeForce RTX 2080 VENTUS 8G V2,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"技嘉 GeForce RTX 2080 SUPER WINDFORCE OC , 铭瑄 MS-GeForce RTX2080 Super iCraft OC, 七彩虹 Colorful GeForce RTX 2080SUPER Gaming ES, 微星 万图师 GeForce RTX 2080 SUPER VENTUS OC, 铭瑄 MS-GeForce RTX2080 Super iCraft, 七彩虹 iGame GeForce RTX 2080 SUPER Advanced OC, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>"华硕 DUAL-RTX2070S-O8G-EVO OC 2070 SUPER , 华硕 ROG-STRIX-RTX2070S-O8G-GAMING 2070 SUPER, 技嘉 AORUS GeForce RTX 2070 SUPER, 铭瑄 MS-GeForce RTX2070 Super iCraft OC , 七彩虹 iGame GeForce RTX 2070 SUPER Vulcan X OC, 微星 黑龙 GeForce RTX 2070 SUPER DUKE 暗黑龙爵,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>"先马 黑洞 玻璃版 电脑游戏主机箱, 先马 坦克3 电脑主机箱, Tt 挑战者H2 黑色 机箱水冷电脑主机,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>"航嘉 金牌600W WD600K电脑电源, 鑫谷 额定600W GP700G黑金版电源, 安钛克 HCG650金牌全模组 台式机电脑主机机箱电源650W, 安钛克 VP550铜牌 台式机电脑主机机箱电源550W,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10" xr:uid="{384F0C8E-4485-4381-85A6-9FC2811E8EC2}">
+      <formula1>"2070,2070s,2080,2080s,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1770,49 +1680,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1825,58 +1735,58 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1889,23 +1799,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" hidden="1" customWidth="1"/>
+    <col min="5" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D1">
         <v>20191031</v>
       </c>
@@ -1946,15 +1857,15 @@
         <v>20191112</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D2">
         <v>1599</v>
@@ -1975,12 +1886,12 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1199</v>
@@ -2001,12 +1912,12 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>2599</v>
@@ -2027,38 +1938,38 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3">
         <v>2599</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>2399</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>2399</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>2399</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>2399</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>2399</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>2899</v>
@@ -2079,12 +1990,12 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>2799</v>
@@ -2105,15 +2016,15 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>4599</v>
@@ -2131,12 +2042,12 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>5099</v>
@@ -2154,12 +2065,12 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>4199</v>
@@ -2177,12 +2088,12 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>3999</v>
@@ -2200,12 +2111,12 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>4999</v>
@@ -2223,12 +2134,12 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>4599</v>
@@ -2246,12 +2157,12 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>5399</v>
@@ -2269,12 +2180,12 @@
         <v>5399</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>4599</v>
@@ -2292,12 +2203,12 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>3949</v>
@@ -2315,12 +2226,12 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>5649</v>
@@ -2341,12 +2252,12 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>5599</v>
@@ -2364,12 +2275,12 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>4069</v>
@@ -2387,23 +2298,23 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I20">
+    <row r="20" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" s="3">
         <v>3999</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>5299</v>
@@ -2421,12 +2332,12 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E22">
         <v>5699</v>
@@ -2444,12 +2355,12 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>4999</v>
@@ -2467,12 +2378,12 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>5399</v>
@@ -2490,12 +2401,12 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>3899</v>
@@ -2513,35 +2424,35 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26">
+    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="3">
         <v>4499</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>4699</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>4699</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>4699</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>4699</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>4699</v>
@@ -2559,12 +2470,12 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>5399</v>
@@ -2582,12 +2493,12 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E29">
         <v>3999</v>
@@ -2605,12 +2516,12 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>4399</v>
@@ -2628,12 +2539,12 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>5939</v>
@@ -2651,12 +2562,12 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E32">
         <v>4599</v>
@@ -2674,12 +2585,12 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E33">
         <v>3299</v>
@@ -2697,12 +2608,12 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E34">
         <v>5699</v>
@@ -2720,12 +2631,12 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <v>5599</v>
@@ -2743,15 +2654,15 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>289</v>
@@ -2772,12 +2683,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37">
         <v>499</v>
@@ -2798,12 +2709,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <v>629</v>
@@ -2824,12 +2735,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>299</v>
@@ -2850,38 +2761,38 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="B40" t="s">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3">
         <v>429</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>379</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>389</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>429</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>389</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>529</v>
@@ -2902,12 +2813,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>649</v>
@@ -2928,15 +2839,15 @@
         <v>589</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43">
         <v>259</v>
@@ -2957,12 +2868,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44">
         <v>255</v>
@@ -2983,38 +2894,38 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="B45" t="s">
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
         <v>499</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>495</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>495</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>489</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>479</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>479</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46">
         <v>569</v>
@@ -3035,12 +2946,12 @@
         <v>559</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47">
         <v>499</v>
@@ -3061,41 +2972,41 @@
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48">
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="3">
         <v>819</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>739</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>769</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>819</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>769</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>769</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49">
         <v>749</v>
@@ -3116,12 +3027,12 @@
         <v>669</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D50">
         <v>1329</v>
@@ -3142,638 +3053,560 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="D51">
+        <v>709</v>
+      </c>
       <c r="E51">
-        <v>1469</v>
+        <v>669</v>
       </c>
       <c r="F51">
-        <v>1469</v>
+        <v>699</v>
       </c>
       <c r="G51">
-        <v>2999</v>
+        <v>709</v>
       </c>
       <c r="H51">
-        <v>1469</v>
+        <v>699</v>
       </c>
       <c r="I51">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52">
+        <v>559</v>
+      </c>
+      <c r="E52">
+        <v>529</v>
+      </c>
+      <c r="F52">
+        <v>539</v>
+      </c>
+      <c r="G52">
+        <v>559</v>
+      </c>
+      <c r="H52">
+        <v>539</v>
+      </c>
+      <c r="I52">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D52">
-        <v>709</v>
-      </c>
-      <c r="E52">
-        <v>669</v>
-      </c>
-      <c r="F52">
-        <v>699</v>
-      </c>
-      <c r="G52">
-        <v>709</v>
-      </c>
-      <c r="H52">
-        <v>699</v>
-      </c>
-      <c r="I52">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="B53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D53">
-        <v>559</v>
+        <v>819</v>
       </c>
       <c r="E53">
-        <v>529</v>
+        <v>799</v>
       </c>
       <c r="F53">
-        <v>539</v>
+        <v>809</v>
       </c>
       <c r="G53">
-        <v>559</v>
+        <v>819</v>
       </c>
       <c r="H53">
-        <v>539</v>
+        <v>809</v>
       </c>
       <c r="I53">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54">
-        <v>819</v>
-      </c>
-      <c r="E54">
-        <v>799</v>
-      </c>
-      <c r="F54">
-        <v>809</v>
-      </c>
-      <c r="G54">
-        <v>819</v>
+        <v>125</v>
       </c>
       <c r="H54">
-        <v>809</v>
+        <v>459</v>
       </c>
       <c r="I54">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55">
-        <v>1699</v>
-      </c>
-      <c r="E55">
-        <v>1499</v>
-      </c>
-      <c r="F55">
-        <v>1599</v>
-      </c>
-      <c r="G55">
-        <v>1699</v>
+        <v>127</v>
       </c>
       <c r="H55">
-        <v>1599</v>
+        <v>329</v>
       </c>
       <c r="I55">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56">
-        <v>1899</v>
-      </c>
-      <c r="E56">
-        <v>1699</v>
-      </c>
-      <c r="F56">
-        <v>1799</v>
-      </c>
-      <c r="G56">
-        <v>1899</v>
+        <v>129</v>
       </c>
       <c r="H56">
-        <v>1799</v>
+        <v>219</v>
       </c>
       <c r="I56">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H57">
-        <v>459</v>
-      </c>
-      <c r="I57">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="3">
+        <v>269</v>
+      </c>
+      <c r="I57" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>136</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H58">
+        <v>299</v>
+      </c>
+      <c r="I58">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59">
+        <v>699</v>
+      </c>
+      <c r="I59">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60">
+        <v>698</v>
+      </c>
+      <c r="I60">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61">
+        <v>629</v>
+      </c>
+      <c r="I61">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="3">
+        <v>699</v>
+      </c>
+      <c r="I62" s="3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63">
+        <v>899</v>
+      </c>
+      <c r="I63">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64">
+        <v>1299</v>
+      </c>
+      <c r="I64">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65">
+        <v>899</v>
+      </c>
+      <c r="I65">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66">
+        <v>1499</v>
+      </c>
+      <c r="I66">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67">
+        <v>719</v>
+      </c>
+      <c r="I67">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68">
+        <v>1299</v>
+      </c>
+      <c r="I68">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69">
+        <v>2099</v>
+      </c>
+      <c r="I69">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70">
+        <v>1699</v>
+      </c>
+      <c r="I70">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71">
+        <v>1758</v>
+      </c>
+      <c r="I71">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72">
+        <v>2399</v>
+      </c>
+      <c r="I72">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73">
+        <v>2898</v>
+      </c>
+      <c r="I73">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H74">
+        <v>2899</v>
+      </c>
+      <c r="I74">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H75">
+        <v>1999</v>
+      </c>
+      <c r="I75">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I76" s="3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I77">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I78">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79" s="3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I80">
         <v>329</v>
       </c>
-      <c r="I58">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="B59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H59">
-        <v>219</v>
-      </c>
-      <c r="I59">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="B60" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H60">
-        <v>269</v>
-      </c>
-      <c r="I60">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="B61" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H61">
-        <v>299</v>
-      </c>
-      <c r="I61">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62">
-        <v>699</v>
-      </c>
-      <c r="I62">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="B63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63">
-        <v>698</v>
-      </c>
-      <c r="I63">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="B64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H64">
-        <v>629</v>
-      </c>
-      <c r="I64">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="B65" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H65">
-        <v>699</v>
-      </c>
-      <c r="I65">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="B66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H66">
-        <v>899</v>
-      </c>
-      <c r="I66">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H67">
-        <v>1299</v>
-      </c>
-      <c r="I67">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="B68" t="s">
-        <v>171</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H68">
-        <v>899</v>
-      </c>
-      <c r="I68">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="B69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H69">
-        <v>1499</v>
-      </c>
-      <c r="I69">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="B70" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H70">
-        <v>719</v>
-      </c>
-      <c r="I70">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H71">
-        <v>1299</v>
-      </c>
-      <c r="I71">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="B72" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H72">
-        <v>2099</v>
-      </c>
-      <c r="I72">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="B73" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H73">
-        <v>1699</v>
-      </c>
-      <c r="I73">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="B74" t="s">
-        <v>163</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H74">
-        <v>1758</v>
-      </c>
-      <c r="I74">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="B75" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H75">
-        <v>2399</v>
-      </c>
-      <c r="I75">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="B76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H76">
-        <v>2898</v>
-      </c>
-      <c r="I76">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="B77" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H77">
-        <v>2899</v>
-      </c>
-      <c r="I77">
-        <v>2899</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="B78" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H78">
-        <v>1999</v>
-      </c>
-      <c r="I78">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>217</v>
-      </c>
-      <c r="B79" t="s">
-        <v>220</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I79">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="B80" t="s">
-        <v>221</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I80">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="I81">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>223</v>
-      </c>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="I82">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="B83" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I83">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="B84" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I84">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="B85" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I85">
         <v>309</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1"/>
-    <hyperlink ref="C38" r:id="rId2"/>
-    <hyperlink ref="C42" r:id="rId3"/>
-    <hyperlink ref="C40" r:id="rId4"/>
-    <hyperlink ref="C41" r:id="rId5"/>
-    <hyperlink ref="C39" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="C3" r:id="rId8"/>
-    <hyperlink ref="C4" r:id="rId9"/>
-    <hyperlink ref="C5" r:id="rId10"/>
-    <hyperlink ref="C6" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="C62" r:id="rId13"/>
-    <hyperlink ref="C63" r:id="rId14"/>
-    <hyperlink ref="C64" r:id="rId15"/>
-    <hyperlink ref="C65" r:id="rId16"/>
-    <hyperlink ref="C66" r:id="rId17"/>
-    <hyperlink ref="C67" r:id="rId18"/>
-    <hyperlink ref="C68" r:id="rId19"/>
-    <hyperlink ref="C69" r:id="rId20"/>
-    <hyperlink ref="C70" r:id="rId21"/>
-    <hyperlink ref="C71" r:id="rId22"/>
-    <hyperlink ref="C72" r:id="rId23"/>
-    <hyperlink ref="C73" r:id="rId24"/>
-    <hyperlink ref="C74" r:id="rId25"/>
-    <hyperlink ref="C75" r:id="rId26"/>
-    <hyperlink ref="C76" r:id="rId27"/>
-    <hyperlink ref="C77" r:id="rId28"/>
-    <hyperlink ref="C78" r:id="rId29"/>
-    <hyperlink ref="C43" r:id="rId30"/>
-    <hyperlink ref="C44" r:id="rId31"/>
-    <hyperlink ref="C45" r:id="rId32"/>
-    <hyperlink ref="C46" r:id="rId33"/>
-    <hyperlink ref="C47" r:id="rId34"/>
-    <hyperlink ref="C25" r:id="rId35"/>
-    <hyperlink ref="C23" r:id="rId36"/>
-    <hyperlink ref="C27" r:id="rId37"/>
-    <hyperlink ref="C28" r:id="rId38"/>
-    <hyperlink ref="C24" r:id="rId39"/>
-    <hyperlink ref="C15" r:id="rId40"/>
-    <hyperlink ref="C13" r:id="rId41"/>
-    <hyperlink ref="C16" r:id="rId42"/>
-    <hyperlink ref="C17" r:id="rId43"/>
-    <hyperlink ref="C14" r:id="rId44"/>
-    <hyperlink ref="C18" r:id="rId45"/>
-    <hyperlink ref="C10" r:id="rId46"/>
-    <hyperlink ref="C33" r:id="rId47"/>
-    <hyperlink ref="C32" r:id="rId48"/>
-    <hyperlink ref="C26" r:id="rId49"/>
-    <hyperlink ref="C30" r:id="rId50"/>
-    <hyperlink ref="C31" r:id="rId51"/>
-    <hyperlink ref="C35" r:id="rId52"/>
-    <hyperlink ref="C34" r:id="rId53"/>
-    <hyperlink ref="C19" r:id="rId54"/>
-    <hyperlink ref="C21" r:id="rId55"/>
-    <hyperlink ref="C22" r:id="rId56"/>
-    <hyperlink ref="C8" r:id="rId57"/>
-    <hyperlink ref="C12" r:id="rId58"/>
-    <hyperlink ref="C57" r:id="rId59"/>
-    <hyperlink ref="C58" r:id="rId60"/>
-    <hyperlink ref="C59" r:id="rId61"/>
-    <hyperlink ref="C60" r:id="rId62"/>
-    <hyperlink ref="C61" r:id="rId63"/>
-    <hyperlink ref="C56" r:id="rId64"/>
-    <hyperlink ref="C55" r:id="rId65"/>
-    <hyperlink ref="C54" r:id="rId66"/>
-    <hyperlink ref="C53" r:id="rId67"/>
-    <hyperlink ref="C52" r:id="rId68"/>
-    <hyperlink ref="C50" r:id="rId69"/>
-    <hyperlink ref="C51" r:id="rId70"/>
-    <hyperlink ref="C49" r:id="rId71"/>
-    <hyperlink ref="C48" r:id="rId72"/>
-    <hyperlink ref="C79" r:id="rId73"/>
-    <hyperlink ref="C80" r:id="rId74"/>
-    <hyperlink ref="C81" r:id="rId75"/>
-    <hyperlink ref="C82" r:id="rId76"/>
-    <hyperlink ref="C83" r:id="rId77"/>
-    <hyperlink ref="C84" r:id="rId78"/>
-    <hyperlink ref="C85" r:id="rId79"/>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C38" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C42" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C40" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C41" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C39" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C59" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C60" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C61" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C62" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C63" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C64" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="C65" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="C66" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="C67" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="C68" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="C69" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="C70" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="C71" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="C72" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="C73" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C74" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="C75" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C43" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="C44" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="C45" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="C46" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="C47" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="C25" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="C23" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="C27" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="C28" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="C24" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="C15" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="C13" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="C16" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="C17" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="C14" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="C18" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="C10" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="C33" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="C32" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="C26" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="C30" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="C31" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="C35" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="C34" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="C19" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="C21" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="C22" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="C8" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="C12" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="C54" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="C55" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="C56" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="C57" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="C58" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="C53" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="C52" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="C51" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="C50" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="C49" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="C48" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="C76" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="C77" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="C78" r:id="rId72" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="C79" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="C80" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="C81" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="C82" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3786,14 +3619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
@@ -3802,83 +3635,83 @@
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>1399</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>1119</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>2599</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>2399</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2799</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>2699</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C9" s="6">
         <v>1499</v>
@@ -3896,12 +3729,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6">
         <v>1499</v>
@@ -3919,12 +3752,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C11" s="6">
         <v>1499</v>
@@ -3942,12 +3775,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C12" s="6">
         <v>1499</v>
@@ -3965,12 +3798,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C13" s="8">
         <v>1199</v>
@@ -3988,12 +3821,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C14" s="8">
         <v>1199</v>
@@ -4011,12 +3844,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C15" s="8">
         <v>1199</v>
@@ -4034,12 +3867,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C16" s="8">
         <v>1199</v>
@@ -4057,12 +3890,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C17" s="8">
         <v>1199</v>
@@ -4080,12 +3913,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C18" s="10">
         <v>2599</v>
@@ -4103,12 +3936,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C19" s="10">
         <v>2599</v>
@@ -4126,12 +3959,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C20" s="10">
         <v>2599</v>
@@ -4149,12 +3982,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C21" s="10">
         <v>2599</v>
@@ -4172,12 +4005,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C22" s="6">
         <v>2399</v>
@@ -4195,12 +4028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C23" s="6">
         <v>2399</v>
@@ -4218,12 +4051,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C24" s="6">
         <v>2399</v>
@@ -4241,12 +4074,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C25" s="6">
         <v>2399</v>
@@ -4264,12 +4097,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C26" s="6">
         <v>2399</v>
@@ -4287,12 +4120,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C27" s="8">
         <v>2899</v>
@@ -4310,12 +4143,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C28" s="8">
         <v>2899</v>
@@ -4333,12 +4166,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C29" s="8">
         <v>2899</v>
@@ -4356,12 +4189,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C30" s="8">
         <v>2899</v>
@@ -4379,12 +4212,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C31" s="8">
         <v>2899</v>
@@ -4402,12 +4235,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C32" s="8">
         <v>2899</v>
@@ -4425,12 +4258,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C33" s="10">
         <v>2699</v>
@@ -4448,12 +4281,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C34" s="10">
         <v>2699</v>
@@ -4471,12 +4304,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C35" s="10">
         <v>2699</v>
@@ -4494,12 +4327,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C36" s="10">
         <v>2699</v>
@@ -4517,12 +4350,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C37" s="10">
         <v>2699</v>
@@ -4540,12 +4373,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C38" s="10">
         <v>2699</v>
@@ -4566,12 +4399,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4584,207 +4417,207 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>698</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>899</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>899</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>1499</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>1299</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>2099</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>1699</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>1758</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>2399</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>2898</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>2899</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C18">
         <v>1999</v>
@@ -4793,23 +4626,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4822,75 +4655,75 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>495</v>
@@ -4899,11 +4732,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4916,528 +4749,446 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E23"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" hidden="1">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B2" s="11">
         <v>2080</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D2">
         <v>4699</v>
       </c>
-      <c r="E2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1">
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B3" s="11">
         <v>2080</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>5199</v>
       </c>
-      <c r="E3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B4" s="11">
         <v>2070</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>4199</v>
       </c>
-      <c r="E4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>4099</v>
       </c>
-      <c r="E5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25">
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>5299</v>
       </c>
-      <c r="E6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>4799</v>
       </c>
-      <c r="E7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="11">
         <v>2080</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>5799</v>
       </c>
-      <c r="E8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B9" s="11">
         <v>2070</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>3699</v>
       </c>
-      <c r="E9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B10" s="11">
         <v>2080</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>5449</v>
       </c>
-      <c r="E10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>5699</v>
       </c>
-      <c r="E11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B12" s="11">
         <v>2070</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>4069</v>
       </c>
-      <c r="E12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="D13">
         <v>3999</v>
       </c>
-      <c r="E13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14">
         <v>5499</v>
       </c>
-      <c r="E14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>5699</v>
       </c>
-      <c r="E15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" s="11">
         <v>2070</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>4999</v>
       </c>
-      <c r="E16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>5699</v>
       </c>
-      <c r="E17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1">
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B18" s="11">
         <v>2070</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>3899</v>
       </c>
-      <c r="E18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25">
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>4699</v>
       </c>
-      <c r="E19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B20" s="11">
         <v>2080</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>5899</v>
       </c>
-      <c r="E20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>5399</v>
       </c>
-      <c r="E21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B22" s="11">
         <v>2070</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>3999</v>
       </c>
-      <c r="E22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25">
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D23">
         <v>4399</v>
       </c>
-      <c r="E23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B24" s="11">
         <v>2080</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>5939</v>
       </c>
-      <c r="E24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B25" s="11">
         <v>2070</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D25">
         <v>4599</v>
       </c>
-      <c r="E25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1">
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B26" s="11">
         <v>2070</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>3699</v>
       </c>
-      <c r="E26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D27">
         <v>5599</v>
       </c>
-      <c r="E27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" hidden="1">
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B28" s="11">
         <v>2080</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>5599</v>
       </c>
-      <c r="E28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E28">
+  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2070s"/>
+        <filter val="2080s"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:E29">
+    <sortState ref="A2:D29">
       <sortCondition ref="A1:A29"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1"/>
-    <hyperlink ref="C16" r:id="rId2"/>
-    <hyperlink ref="C20" r:id="rId3"/>
-    <hyperlink ref="C21" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C8" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C4" r:id="rId11"/>
-    <hyperlink ref="C26" r:id="rId12"/>
-    <hyperlink ref="C25" r:id="rId13"/>
-    <hyperlink ref="C19" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C28" r:id="rId17"/>
-    <hyperlink ref="C27" r:id="rId18"/>
-    <hyperlink ref="C12" r:id="rId19"/>
-    <hyperlink ref="C14" r:id="rId20"/>
-    <hyperlink ref="C15" r:id="rId21"/>
-    <hyperlink ref="C2" r:id="rId22"/>
-    <hyperlink ref="C6" r:id="rId23"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C21" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C25" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="C28" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="C27" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="C12" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="C14" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="C15" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="C2" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="C6" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5450,75 +5201,75 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>299</v>
@@ -5527,11 +5278,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5544,59 +5295,59 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>769</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>1249</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -5604,76 +5355,40 @@
         <v>45</v>
       </c>
       <c r="C5">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>49</v>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C7">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
         <v>809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10">
-        <v>1799</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5686,112 +5401,128 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A5" sqref="A5:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>489</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>289</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f>C5/1</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>389</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f>C6/2</f>
+        <v>194.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>509</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f>C7/3</f>
+        <v>169.66666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>599</v>
+      </c>
+      <c r="D8">
+        <f>C8/4</f>
+        <v>149.75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/装机清单.xlsx
+++ b/装机清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\PublicDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F24C7E-75F1-434D-9DC2-F5E813C50EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74669239-940F-4888-B10E-EFE51B807D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1803,8 +1803,8 @@
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/装机清单.xlsx
+++ b/装机清单.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\PublicDoc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74669239-940F-4888-B10E-EFE51B807D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="10920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="配置清单" sheetId="11" r:id="rId1"/>
@@ -28,23 +22,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">显卡!$A$1:$D$29</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="193">
   <si>
     <t>Intel i5 9400F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,14 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西部数据 蓝盘 1T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西部数据 蓝盘 4T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西部数据 紫盘 4T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西部数据 蓝盘 3T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金士顿 DDR4 2666 8G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,15 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.jd.com/675971.html</t>
-  </si>
-  <si>
-    <t>https://item.jd.com/2031266.html</t>
-  </si>
-  <si>
-    <t>https://item.jd.com/2031262.html</t>
-  </si>
-  <si>
     <t>https://item.jd.com/4934558.html</t>
   </si>
   <si>
@@ -714,13 +687,6 @@
   </si>
   <si>
     <t>安钛克 HCG650金牌全模组 台式机电脑主机机箱电源650W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/7254027.html</t>
-  </si>
-  <si>
-    <t>安钛克 VP550铜牌 台式机电脑主机机箱电源550W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -750,7 +716,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -827,7 +793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -926,6 +892,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -953,8 +923,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="97" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="107">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="111">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1004,63 +973,68 @@
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1396,281 +1370,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="F1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(B2,基础信息!$B:$P,$G$1,FALSE)</f>
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <f>VLOOKUP(B2,基础信息!$B:$O,$G$1,FALSE)</f>
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B3" t="str">
         <f>IF(B2=$F$3,$G$3,IF(B2=$F$4,$G$4,IF(B2=$F$5,$G$5,IF(B2=$F$6,$G$6,IF(B2=$F$7,$G$7,IF(B2=$F$8,$G$8,0))))))</f>
         <v xml:space="preserve">华硕 TUF B360M-PLUS GAMING S </v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(B3,基础信息!$B:$P,$G$1,FALSE)</f>
+        <f>VLOOKUP(B3,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>699</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(B4,基础信息!$B:$P,$G$1,FALSE)</f>
+        <f>VLOOKUP(B4,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>479</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B5" t="str">
         <f>IF($G$10=$F$11,$G$11,IF($G$10=$F$12,$G$12,IF($G$10=$F$13,$G$13,IF($G$10=$F$14,$G$14,0))))</f>
         <v xml:space="preserve">铭瑄 MS-GeForce RTX2070 Super iCraft OC </v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(B5,基础信息!$B:$P,$G$1,FALSE)</f>
+        <f>VLOOKUP(B5,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>3999</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(B6,基础信息!$B:$P,$G$1,FALSE)</f>
-        <v>249</v>
+        <f>VLOOKUP(B6,基础信息!$B:$O,$G$1,FALSE)</f>
+        <v>269</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(B7,基础信息!$B:$P,$G$1,FALSE)</f>
-        <v>769</v>
+        <f>VLOOKUP(B7,基础信息!$B:$O,$G$1,FALSE)</f>
+        <v>739</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C8">
-        <f>VLOOKUP(B8,基础信息!$B:$P,$G$1,FALSE)</f>
+        <f>VLOOKUP(B8,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>389</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C9">
-        <f>VLOOKUP(B9,基础信息!$B:$P,$G$1,FALSE)</f>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <f>VLOOKUP(B9,基础信息!$B:$O,$G$1,FALSE)</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C10">
-        <f>VLOOKUP(B10,基础信息!$B:$P,$G$1,FALSE)</f>
+        <f>VLOOKUP(B10,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>339</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <f>SUM(C2:C10)</f>
-        <v>9671</v>
+        <v>9551</v>
       </c>
       <c r="F11" s="2">
         <v>2070</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="F12" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="F13" s="2">
         <v>2080</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="F14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"西部数据 蓝盘 1T, 西部数据 蓝盘 3T, 西部数据 蓝盘 4T, 西部数据 紫盘 1T, 西部数据 紫盘 2T, 西部数据 紫盘 3T, 西部数据 紫盘 4T,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"三星 500G M.2(NVMe) 970 EVO Plus, 三星 500G M.2(NVMe) 970 EVO, 三星 512G M.2(NVMe) 970 EVO Pro, 西部数据 500G M.2(NVMe) Black系列 SN750, 西部数据 500G M.2(NVMe) Blue SN500, 西部数据 500G M.2(NVMe) Black SN750,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Intel i5 9400, Intel i5 9400F, Intel i7 9700, Intel i7 9700F, Intel i7 9700K, Intel i7 9700KF,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"金士顿 DDR4 2666 8G, 金士顿 DDR4 2400 8G, 金士顿 DDR4 2666 16G, 金士顿 DDR4 3200 16G, 金士顿 DDR4 2400 16G,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"九州风神 堡垒240 CPU水冷散热器, 九州风神 水元素240T CPU水冷散热器, 九州风神 大霜塔CPU散热器, 九州风神 大霜塔RGB风冷CPU散热器, 酷冷至尊 T610P CPU风冷散热器,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"微星 MAG B365M MORTAR迫击炮, 技嘉 B365 M AORUS ELITE “小雕” , 微星 B360M MORTAR迫击炮 , 华硕 TUF B360M-PLUS GAMING S ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
       <formula1>"华硕 TUF B360M-PLUS GAMING S , 微星 MAG B365M MORTAR迫击炮, 技嘉 B365 M AORUS ELITE “小雕” , 微星 B360M MORTAR迫击炮 , 华硕 PRIME B365-PLUS,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
       <formula1>"微星 MAG Z390 TOMAHAWK 战斧导弹, 技嘉 B365 M AORUS ELITE “小雕” , 玩家国度 ROG STRIX B365-G GAMING, 华硕 TUF B360M-PLUS GAMING S ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
       <formula1>"微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 B365 M AORUS ELITE “小雕” , 华硕 TUF B360M-PLUS GAMING S , 华硕 TUF B365M-PLUS GAMING, 玩家国度  ROG STRIX B365-F GAMING ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
       <formula1>"玩家国度 ROG STRIX Z390-E GAMING , 华硕 PRIME Z390-A , 微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 Z390 AORUS PRO WIFI “电竞专家”, 微星 MAG Z390 TOMAHAWK 战斧导弹, 微星 MEG Z390 ACE 战神板,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"华硕 PRIME Z390-A , 微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 Z390 AORUS MASTER “电竞大师”, 技嘉 Z390 AORUS PRO WIFI “电竞专家”, 玩家国度 ROG MAXIMUS XI HERO (WI-FI) , 玩家国度 ROG STRIX Z390-F GAMING,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
       <formula1>"华硕 DUAL-RTX2070-O8G-EVO OC , 技嘉 GeForce RTX 2070 GAMING OC, 铭瑄 MS-GeForce RTX2070 iCraft GM, 七彩虹 Colorful GeForce RTX 2070, 七彩虹 iGame GeForce RTX 2070, 索泰 RTX2070 X-GAMING G3, 微星 魔龙Z GeForce RTX 2070 GAMING Z, 微星 万图师 GeForce RTX 2070 VENTUS,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13">
       <formula1>"EVGA GeForce RTX 2080 Black GAMING, EVGA GeForce RTX 2080 XC Ultra GAMING , 技嘉 AORUS GeForce RTX 2080 小雕, 技嘉 GeForce RTX 2080 GAMING OC, 七彩虹 iGame GeForce RTX 2080 RNG Edition, 微星 黑龙 GeForce RTX 2080 8G DUKE 龙爵, 微星 万图师 GeForce RTX 2080 VENTUS 8G V2,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14">
       <formula1>"技嘉 GeForce RTX 2080 SUPER WINDFORCE OC , 铭瑄 MS-GeForce RTX2080 Super iCraft OC, 七彩虹 Colorful GeForce RTX 2080SUPER Gaming ES, 微星 万图师 GeForce RTX 2080 SUPER VENTUS OC, 铭瑄 MS-GeForce RTX2080 Super iCraft, 七彩虹 iGame GeForce RTX 2080 SUPER Advanced OC, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12">
       <formula1>"华硕 DUAL-RTX2070S-O8G-EVO OC 2070 SUPER , 华硕 ROG-STRIX-RTX2070S-O8G-GAMING 2070 SUPER, 技嘉 AORUS GeForce RTX 2070 SUPER, 铭瑄 MS-GeForce RTX2070 Super iCraft OC , 七彩虹 iGame GeForce RTX 2070 SUPER Vulcan X OC, 微星 黑龙 GeForce RTX 2070 SUPER DUKE 暗黑龙爵,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"先马 黑洞 玻璃版 电脑游戏主机箱, 先马 坦克3 电脑主机箱, Tt 挑战者H2 黑色 机箱水冷电脑主机,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000010000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"航嘉 金牌600W WD600K电脑电源, 鑫谷 额定600W GP700G黑金版电源, 安钛克 HCG650金牌全模组 台式机电脑主机机箱电源650W, 安钛克 VP550铜牌 台式机电脑主机机箱电源550W,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10" xr:uid="{384F0C8E-4485-4381-85A6-9FC2811E8EC2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
       <formula1>"2070,2070s,2080,2080s,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1680,49 +1654,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1735,58 +1709,49 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A2:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>191</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1799,24 +1764,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" hidden="1" customWidth="1"/>
-    <col min="5" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="D1">
         <v>20191031</v>
       </c>
@@ -1836,36 +1803,33 @@
         <v>20191105</v>
       </c>
       <c r="J1">
-        <v>20191106</v>
+        <v>20191107</v>
       </c>
       <c r="K1">
-        <v>20191107</v>
+        <v>20191108</v>
       </c>
       <c r="L1">
-        <v>20191108</v>
+        <v>20191109</v>
       </c>
       <c r="M1">
-        <v>20191109</v>
+        <v>20191110</v>
       </c>
       <c r="N1">
-        <v>20191110</v>
+        <v>20191111</v>
       </c>
       <c r="O1">
-        <v>20191111</v>
-      </c>
-      <c r="P1">
         <v>20191112</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>1599</v>
@@ -1885,13 +1849,16 @@
       <c r="I2">
         <v>1499</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J2">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1199</v>
@@ -1911,13 +1878,16 @@
       <c r="I3">
         <v>1199</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2599</v>
@@ -1937,13 +1907,16 @@
       <c r="I4">
         <v>2599</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3">
         <v>2599</v>
@@ -1963,13 +1936,16 @@
       <c r="I5" s="3">
         <v>2399</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J5" s="3">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>2899</v>
@@ -1989,13 +1965,16 @@
       <c r="I6">
         <v>2899</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>2799</v>
@@ -2015,16 +1994,19 @@
       <c r="I7">
         <v>2699</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>4599</v>
@@ -2041,13 +2023,16 @@
       <c r="I8">
         <v>4699</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>5099</v>
@@ -2064,13 +2049,16 @@
       <c r="I9">
         <v>5199</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>4199</v>
@@ -2087,13 +2075,16 @@
       <c r="I10">
         <v>4199</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>3999</v>
@@ -2110,13 +2101,16 @@
       <c r="I11">
         <v>4399</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J11">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>4999</v>
@@ -2133,13 +2127,16 @@
       <c r="I12">
         <v>5299</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>4599</v>
@@ -2156,13 +2153,16 @@
       <c r="I13">
         <v>4599</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="B14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>5399</v>
@@ -2179,13 +2179,16 @@
       <c r="I14">
         <v>5399</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>4599</v>
@@ -2202,13 +2205,16 @@
       <c r="I15">
         <v>4599</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>3949</v>
@@ -2225,13 +2231,16 @@
       <c r="I16">
         <v>4199</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>5649</v>
@@ -2251,13 +2260,16 @@
       <c r="I17">
         <v>6299</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>5599</v>
@@ -2274,13 +2286,16 @@
       <c r="I18">
         <v>5899</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>4069</v>
@@ -2297,24 +2312,30 @@
       <c r="I19">
         <v>4069</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="3" customFormat="1">
       <c r="B20" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I20" s="3">
         <v>3999</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J20" s="3">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>5299</v>
@@ -2331,13 +2352,16 @@
       <c r="I21">
         <v>5499</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J21">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <v>5699</v>
@@ -2354,13 +2378,16 @@
       <c r="I22">
         <v>5699</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J22">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>4999</v>
@@ -2377,13 +2404,16 @@
       <c r="I23">
         <v>4999</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J23">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>5399</v>
@@ -2400,13 +2430,16 @@
       <c r="I24">
         <v>5699</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J24">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>3899</v>
@@ -2423,13 +2456,16 @@
       <c r="I25">
         <v>3899</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J25">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="3" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3">
         <v>4499</v>
@@ -2446,13 +2482,16 @@
       <c r="I26" s="3">
         <v>4699</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J26" s="3">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>4699</v>
@@ -2469,13 +2508,16 @@
       <c r="I27">
         <v>5899</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J27">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>5399</v>
@@ -2492,13 +2534,16 @@
       <c r="I28">
         <v>5699</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J28">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E29">
         <v>3999</v>
@@ -2515,13 +2560,16 @@
       <c r="I29">
         <v>3999</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J29">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E30">
         <v>4399</v>
@@ -2538,13 +2586,16 @@
       <c r="I30">
         <v>3999</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J30">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <v>5939</v>
@@ -2561,13 +2612,16 @@
       <c r="I31">
         <v>5939</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J31">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <v>4599</v>
@@ -2584,13 +2638,16 @@
       <c r="I32">
         <v>3899</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="B33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E33">
         <v>3299</v>
@@ -2607,13 +2664,16 @@
       <c r="I33">
         <v>3699</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="B34" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <v>5699</v>
@@ -2630,13 +2690,16 @@
       <c r="I34">
         <v>5699</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J34">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="B35" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E35">
         <v>5599</v>
@@ -2653,799 +2716,880 @@
       <c r="I35">
         <v>5599</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J35">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D36">
+        <v>299</v>
+      </c>
+      <c r="E36">
+        <v>279</v>
+      </c>
+      <c r="F36">
         <v>289</v>
       </c>
-      <c r="E36">
-        <v>269</v>
-      </c>
-      <c r="F36">
-        <v>279</v>
-      </c>
       <c r="G36">
+        <v>299</v>
+      </c>
+      <c r="H36">
         <v>289</v>
       </c>
-      <c r="H36">
-        <v>279</v>
-      </c>
       <c r="I36">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37">
-        <v>499</v>
-      </c>
-      <c r="E37">
-        <v>475</v>
-      </c>
-      <c r="F37">
+        <v>289</v>
+      </c>
+      <c r="J36">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1">
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3">
+        <v>429</v>
+      </c>
+      <c r="E37" s="3">
+        <v>379</v>
+      </c>
+      <c r="F37" s="3">
+        <v>389</v>
+      </c>
+      <c r="G37" s="3">
+        <v>429</v>
+      </c>
+      <c r="H37" s="3">
+        <v>389</v>
+      </c>
+      <c r="I37" s="3">
+        <v>389</v>
+      </c>
+      <c r="J37" s="3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>529</v>
+      </c>
+      <c r="E38">
         <v>489</v>
       </c>
-      <c r="G37">
-        <v>499</v>
-      </c>
-      <c r="H37">
-        <v>489</v>
-      </c>
-      <c r="I37">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="F38">
+        <v>509</v>
+      </c>
+      <c r="G38">
+        <v>529</v>
+      </c>
+      <c r="H38">
+        <v>509</v>
+      </c>
+      <c r="I38">
+        <v>509</v>
+      </c>
+      <c r="J38">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>649</v>
+      </c>
+      <c r="E39">
+        <v>589</v>
+      </c>
+      <c r="F39">
+        <v>619</v>
+      </c>
+      <c r="G39">
+        <v>649</v>
+      </c>
+      <c r="H39">
+        <v>599</v>
+      </c>
+      <c r="I39">
+        <v>589</v>
+      </c>
+      <c r="J39">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D38">
-        <v>629</v>
-      </c>
-      <c r="E38">
-        <v>569</v>
-      </c>
-      <c r="F38">
-        <v>589</v>
-      </c>
-      <c r="G38">
-        <v>629</v>
-      </c>
-      <c r="H38">
-        <v>589</v>
-      </c>
-      <c r="I38">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39">
-        <v>299</v>
-      </c>
-      <c r="E39">
-        <v>279</v>
-      </c>
-      <c r="F39">
-        <v>289</v>
-      </c>
-      <c r="G39">
-        <v>299</v>
-      </c>
-      <c r="H39">
-        <v>289</v>
-      </c>
-      <c r="I39">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="3">
-        <v>429</v>
-      </c>
-      <c r="E40" s="3">
-        <v>379</v>
-      </c>
-      <c r="F40" s="3">
-        <v>389</v>
-      </c>
-      <c r="G40" s="3">
-        <v>429</v>
-      </c>
-      <c r="H40" s="3">
-        <v>389</v>
-      </c>
-      <c r="I40" s="3">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <v>259</v>
+      </c>
+      <c r="E40">
+        <v>249</v>
+      </c>
+      <c r="F40">
+        <v>259</v>
+      </c>
+      <c r="G40">
+        <v>259</v>
+      </c>
+      <c r="H40">
+        <v>239</v>
+      </c>
+      <c r="I40">
+        <v>239</v>
+      </c>
+      <c r="J40">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>529</v>
+        <v>255</v>
       </c>
       <c r="E41">
+        <v>249</v>
+      </c>
+      <c r="F41">
+        <v>255</v>
+      </c>
+      <c r="G41">
+        <v>255</v>
+      </c>
+      <c r="H41">
+        <v>249</v>
+      </c>
+      <c r="I41">
+        <v>249</v>
+      </c>
+      <c r="J41">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="3" customFormat="1">
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="3">
+        <v>499</v>
+      </c>
+      <c r="E42" s="3">
+        <v>495</v>
+      </c>
+      <c r="F42" s="3">
+        <v>495</v>
+      </c>
+      <c r="G42" s="3">
         <v>489</v>
       </c>
-      <c r="F41">
-        <v>509</v>
-      </c>
-      <c r="G41">
-        <v>529</v>
-      </c>
-      <c r="H41">
-        <v>509</v>
-      </c>
-      <c r="I41">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42">
-        <v>649</v>
-      </c>
-      <c r="E42">
-        <v>589</v>
-      </c>
-      <c r="F42">
-        <v>619</v>
-      </c>
-      <c r="G42">
-        <v>649</v>
-      </c>
-      <c r="H42">
-        <v>599</v>
-      </c>
-      <c r="I42">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>106</v>
-      </c>
+      <c r="H42" s="3">
+        <v>479</v>
+      </c>
+      <c r="I42" s="3">
+        <v>479</v>
+      </c>
+      <c r="J42" s="3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>259</v>
+        <v>569</v>
       </c>
       <c r="E43">
-        <v>249</v>
+        <v>559</v>
       </c>
       <c r="F43">
-        <v>259</v>
+        <v>555</v>
       </c>
       <c r="G43">
-        <v>259</v>
+        <v>569</v>
       </c>
       <c r="H43">
-        <v>239</v>
+        <v>559</v>
       </c>
       <c r="I43">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+      <c r="J43">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>499</v>
+      </c>
+      <c r="E44">
+        <v>495</v>
+      </c>
+      <c r="F44">
+        <v>499</v>
+      </c>
+      <c r="G44">
+        <v>499</v>
+      </c>
+      <c r="H44">
+        <v>495</v>
+      </c>
+      <c r="I44">
+        <v>495</v>
+      </c>
+      <c r="J44">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1">
+      <c r="A45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="3">
+        <v>819</v>
+      </c>
+      <c r="E45" s="3">
+        <v>739</v>
+      </c>
+      <c r="F45" s="3">
+        <v>769</v>
+      </c>
+      <c r="G45" s="3">
+        <v>819</v>
+      </c>
+      <c r="H45" s="3">
+        <v>769</v>
+      </c>
+      <c r="I45" s="3">
+        <v>769</v>
+      </c>
+      <c r="J45" s="3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>749</v>
+      </c>
+      <c r="E46">
+        <v>639</v>
+      </c>
+      <c r="F46">
+        <v>669</v>
+      </c>
+      <c r="G46">
+        <v>999</v>
+      </c>
+      <c r="H46">
+        <v>669</v>
+      </c>
+      <c r="I46">
+        <v>669</v>
+      </c>
+      <c r="J46">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D44">
-        <v>255</v>
-      </c>
-      <c r="E44">
+      <c r="D47">
+        <v>1329</v>
+      </c>
+      <c r="E47">
+        <v>1299</v>
+      </c>
+      <c r="F47">
+        <v>1249</v>
+      </c>
+      <c r="G47">
+        <v>1329</v>
+      </c>
+      <c r="H47">
+        <v>1249</v>
+      </c>
+      <c r="I47">
+        <v>1249</v>
+      </c>
+      <c r="J47">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>709</v>
+      </c>
+      <c r="E48">
+        <v>669</v>
+      </c>
+      <c r="F48">
+        <v>699</v>
+      </c>
+      <c r="G48">
+        <v>709</v>
+      </c>
+      <c r="H48">
+        <v>699</v>
+      </c>
+      <c r="I48">
+        <v>669</v>
+      </c>
+      <c r="J48">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>559</v>
+      </c>
+      <c r="E49">
+        <v>529</v>
+      </c>
+      <c r="F49">
+        <v>539</v>
+      </c>
+      <c r="G49">
+        <v>559</v>
+      </c>
+      <c r="H49">
+        <v>539</v>
+      </c>
+      <c r="I49">
+        <v>529</v>
+      </c>
+      <c r="J49">
+        <v>528.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50">
+        <v>819</v>
+      </c>
+      <c r="E50">
+        <v>799</v>
+      </c>
+      <c r="F50">
+        <v>809</v>
+      </c>
+      <c r="G50">
+        <v>819</v>
+      </c>
+      <c r="H50">
+        <v>809</v>
+      </c>
+      <c r="I50">
+        <v>799</v>
+      </c>
+      <c r="J50">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51">
+        <v>459</v>
+      </c>
+      <c r="I51">
+        <v>429</v>
+      </c>
+      <c r="J51">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52">
+        <v>329</v>
+      </c>
+      <c r="I52">
+        <v>299</v>
+      </c>
+      <c r="J52">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53">
+        <v>219</v>
+      </c>
+      <c r="I53">
+        <v>199</v>
+      </c>
+      <c r="J53">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="3" customFormat="1">
+      <c r="B54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="3">
+        <v>269</v>
+      </c>
+      <c r="I54" s="3">
         <v>249</v>
       </c>
-      <c r="F44">
-        <v>255</v>
-      </c>
-      <c r="G44">
-        <v>255</v>
-      </c>
-      <c r="H44">
-        <v>249</v>
-      </c>
-      <c r="I44">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="3">
-        <v>499</v>
-      </c>
-      <c r="E45" s="3">
-        <v>495</v>
-      </c>
-      <c r="F45" s="3">
-        <v>495</v>
-      </c>
-      <c r="G45" s="3">
-        <v>489</v>
-      </c>
-      <c r="H45" s="3">
-        <v>479</v>
-      </c>
-      <c r="I45" s="3">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46">
-        <v>569</v>
-      </c>
-      <c r="E46">
-        <v>559</v>
-      </c>
-      <c r="F46">
-        <v>555</v>
-      </c>
-      <c r="G46">
-        <v>569</v>
-      </c>
-      <c r="H46">
-        <v>559</v>
-      </c>
-      <c r="I46">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47">
-        <v>499</v>
-      </c>
-      <c r="E47">
-        <v>495</v>
-      </c>
-      <c r="F47">
-        <v>499</v>
-      </c>
-      <c r="G47">
-        <v>499</v>
-      </c>
-      <c r="H47">
-        <v>495</v>
-      </c>
-      <c r="I47">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="3">
-        <v>819</v>
-      </c>
-      <c r="E48" s="3">
-        <v>739</v>
-      </c>
-      <c r="F48" s="3">
-        <v>769</v>
-      </c>
-      <c r="G48" s="3">
-        <v>819</v>
-      </c>
-      <c r="H48" s="3">
-        <v>769</v>
-      </c>
-      <c r="I48" s="3">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49">
-        <v>749</v>
-      </c>
-      <c r="E49">
-        <v>639</v>
-      </c>
-      <c r="F49">
-        <v>669</v>
-      </c>
-      <c r="G49">
-        <v>999</v>
-      </c>
-      <c r="H49">
-        <v>669</v>
-      </c>
-      <c r="I49">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50">
-        <v>1329</v>
-      </c>
-      <c r="E50">
-        <v>1299</v>
-      </c>
-      <c r="F50">
-        <v>1249</v>
-      </c>
-      <c r="G50">
-        <v>1329</v>
-      </c>
-      <c r="H50">
-        <v>1249</v>
-      </c>
-      <c r="I50">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51">
-        <v>709</v>
-      </c>
-      <c r="E51">
-        <v>669</v>
-      </c>
-      <c r="F51">
-        <v>699</v>
-      </c>
-      <c r="G51">
-        <v>709</v>
-      </c>
-      <c r="H51">
-        <v>699</v>
-      </c>
-      <c r="I51">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52">
-        <v>559</v>
-      </c>
-      <c r="E52">
-        <v>529</v>
-      </c>
-      <c r="F52">
-        <v>539</v>
-      </c>
-      <c r="G52">
-        <v>559</v>
-      </c>
-      <c r="H52">
-        <v>539</v>
-      </c>
-      <c r="I52">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53">
-        <v>819</v>
-      </c>
-      <c r="E53">
-        <v>799</v>
-      </c>
-      <c r="F53">
-        <v>809</v>
-      </c>
-      <c r="G53">
-        <v>819</v>
-      </c>
-      <c r="H53">
-        <v>809</v>
-      </c>
-      <c r="I53">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54">
-        <v>459</v>
-      </c>
-      <c r="I54">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J54" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="B55" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H55">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="I55">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+      <c r="J55">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="H56">
+        <v>699</v>
+      </c>
+      <c r="I56">
+        <v>699</v>
+      </c>
+      <c r="J56">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57">
+        <v>698</v>
+      </c>
+      <c r="I57">
+        <v>698</v>
+      </c>
+      <c r="J57">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58">
+        <v>629</v>
+      </c>
+      <c r="I58">
+        <v>629</v>
+      </c>
+      <c r="J58">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="3" customFormat="1">
+      <c r="B59" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" s="3">
+        <v>699</v>
+      </c>
+      <c r="I59" s="3">
+        <v>699</v>
+      </c>
+      <c r="J59" s="3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60">
+        <v>899</v>
+      </c>
+      <c r="I60">
+        <v>899</v>
+      </c>
+      <c r="J60">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61">
+        <v>1299</v>
+      </c>
+      <c r="I61">
+        <v>1299</v>
+      </c>
+      <c r="J61">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62">
+        <v>899</v>
+      </c>
+      <c r="I62">
+        <v>899</v>
+      </c>
+      <c r="J62">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63">
+        <v>1499</v>
+      </c>
+      <c r="I63">
+        <v>1499</v>
+      </c>
+      <c r="J63">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64">
+        <v>719</v>
+      </c>
+      <c r="I64">
+        <v>719</v>
+      </c>
+      <c r="J64">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="B65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H65">
+        <v>1299</v>
+      </c>
+      <c r="I65">
+        <v>1299</v>
+      </c>
+      <c r="J65">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66">
+        <v>2099</v>
+      </c>
+      <c r="I66">
+        <v>2099</v>
+      </c>
+      <c r="J66">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H67">
+        <v>1699</v>
+      </c>
+      <c r="I67">
+        <v>1699</v>
+      </c>
+      <c r="J67">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68">
+        <v>1758</v>
+      </c>
+      <c r="I68">
+        <v>1758</v>
+      </c>
+      <c r="J68">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H69">
+        <v>2399</v>
+      </c>
+      <c r="I69">
+        <v>2399</v>
+      </c>
+      <c r="J69">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H70">
+        <v>2898</v>
+      </c>
+      <c r="I70">
+        <v>2898</v>
+      </c>
+      <c r="J70">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H71">
+        <v>2899</v>
+      </c>
+      <c r="I71">
+        <v>2899</v>
+      </c>
+      <c r="J71">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72">
+        <v>1999</v>
+      </c>
+      <c r="I72">
+        <v>1999</v>
+      </c>
+      <c r="J72">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="3" customFormat="1">
+      <c r="A73" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I73" s="3">
+        <v>349</v>
+      </c>
+      <c r="J73" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74">
         <v>219</v>
       </c>
-      <c r="I56">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H57" s="3">
-        <v>269</v>
-      </c>
-      <c r="I57" s="3">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58">
-        <v>299</v>
-      </c>
-      <c r="I58">
+      <c r="J74">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I75">
         <v>259</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59">
-        <v>699</v>
-      </c>
-      <c r="I59">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H60">
-        <v>698</v>
-      </c>
-      <c r="I60">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H61">
-        <v>629</v>
-      </c>
-      <c r="I61">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H62" s="3">
-        <v>699</v>
-      </c>
-      <c r="I62" s="3">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63">
-        <v>899</v>
-      </c>
-      <c r="I63">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H64">
-        <v>1299</v>
-      </c>
-      <c r="I64">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H65">
-        <v>899</v>
-      </c>
-      <c r="I65">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H66">
-        <v>1499</v>
-      </c>
-      <c r="I66">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H67">
-        <v>719</v>
-      </c>
-      <c r="I67">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H68">
-        <v>1299</v>
-      </c>
-      <c r="I68">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H69">
-        <v>2099</v>
-      </c>
-      <c r="I69">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H70">
-        <v>1699</v>
-      </c>
-      <c r="I70">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H71">
-        <v>1758</v>
-      </c>
-      <c r="I71">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H72">
-        <v>2399</v>
-      </c>
-      <c r="I72">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H73">
-        <v>2898</v>
-      </c>
-      <c r="I73">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H74">
-        <v>2899</v>
-      </c>
-      <c r="I74">
-        <v>2899</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H75">
-        <v>1999</v>
-      </c>
-      <c r="I75">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J75">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="3" customFormat="1">
       <c r="A76" s="3" t="s">
         <v>178</v>
       </c>
@@ -3453,160 +3597,119 @@
         <v>181</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I76" s="3">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+      <c r="J76" s="3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="B77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I77">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+      <c r="J77">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="B78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I78">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="I79" s="3">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
-        <v>189</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I80">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I81">
         <v>649</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I82">
-        <v>309</v>
+      <c r="J78">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C38" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C42" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C40" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C41" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C39" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C4" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C59" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C60" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="C61" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C62" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="C63" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C64" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="C65" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="C66" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="C67" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="C68" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="C69" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="C70" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="C71" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C72" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="C73" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="C74" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="C75" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="C43" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="C44" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="C45" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="C46" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="C47" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="C25" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="C23" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="C27" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="C28" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="C24" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="C15" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="C13" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="C16" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="C17" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="C14" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="C18" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="C10" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="C33" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="C32" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="C26" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="C30" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="C31" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="C35" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="C34" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="C19" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="C21" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="C22" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="C8" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="C12" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="C54" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="C55" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="C56" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="C57" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="C58" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="C53" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="C52" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="C51" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="C50" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="C49" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="C48" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="C76" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="C77" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="C78" r:id="rId72" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="C79" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="C80" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="C81" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="C82" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="C39" r:id="rId1"/>
+    <hyperlink ref="C37" r:id="rId2"/>
+    <hyperlink ref="C38" r:id="rId3"/>
+    <hyperlink ref="C36" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="C56" r:id="rId11"/>
+    <hyperlink ref="C57" r:id="rId12"/>
+    <hyperlink ref="C58" r:id="rId13"/>
+    <hyperlink ref="C59" r:id="rId14"/>
+    <hyperlink ref="C60" r:id="rId15"/>
+    <hyperlink ref="C61" r:id="rId16"/>
+    <hyperlink ref="C62" r:id="rId17"/>
+    <hyperlink ref="C63" r:id="rId18"/>
+    <hyperlink ref="C64" r:id="rId19"/>
+    <hyperlink ref="C65" r:id="rId20"/>
+    <hyperlink ref="C66" r:id="rId21"/>
+    <hyperlink ref="C67" r:id="rId22"/>
+    <hyperlink ref="C68" r:id="rId23"/>
+    <hyperlink ref="C69" r:id="rId24"/>
+    <hyperlink ref="C70" r:id="rId25"/>
+    <hyperlink ref="C71" r:id="rId26"/>
+    <hyperlink ref="C72" r:id="rId27"/>
+    <hyperlink ref="C40" r:id="rId28"/>
+    <hyperlink ref="C41" r:id="rId29"/>
+    <hyperlink ref="C42" r:id="rId30"/>
+    <hyperlink ref="C43" r:id="rId31"/>
+    <hyperlink ref="C44" r:id="rId32"/>
+    <hyperlink ref="C25" r:id="rId33"/>
+    <hyperlink ref="C23" r:id="rId34"/>
+    <hyperlink ref="C27" r:id="rId35"/>
+    <hyperlink ref="C28" r:id="rId36"/>
+    <hyperlink ref="C24" r:id="rId37"/>
+    <hyperlink ref="C15" r:id="rId38"/>
+    <hyperlink ref="C13" r:id="rId39"/>
+    <hyperlink ref="C16" r:id="rId40"/>
+    <hyperlink ref="C17" r:id="rId41"/>
+    <hyperlink ref="C14" r:id="rId42"/>
+    <hyperlink ref="C18" r:id="rId43"/>
+    <hyperlink ref="C10" r:id="rId44"/>
+    <hyperlink ref="C33" r:id="rId45"/>
+    <hyperlink ref="C32" r:id="rId46"/>
+    <hyperlink ref="C26" r:id="rId47"/>
+    <hyperlink ref="C30" r:id="rId48"/>
+    <hyperlink ref="C31" r:id="rId49"/>
+    <hyperlink ref="C35" r:id="rId50"/>
+    <hyperlink ref="C34" r:id="rId51"/>
+    <hyperlink ref="C19" r:id="rId52"/>
+    <hyperlink ref="C21" r:id="rId53"/>
+    <hyperlink ref="C22" r:id="rId54"/>
+    <hyperlink ref="C8" r:id="rId55"/>
+    <hyperlink ref="C12" r:id="rId56"/>
+    <hyperlink ref="C51" r:id="rId57"/>
+    <hyperlink ref="C52" r:id="rId58"/>
+    <hyperlink ref="C53" r:id="rId59"/>
+    <hyperlink ref="C54" r:id="rId60"/>
+    <hyperlink ref="C55" r:id="rId61"/>
+    <hyperlink ref="C50" r:id="rId62"/>
+    <hyperlink ref="C49" r:id="rId63"/>
+    <hyperlink ref="C48" r:id="rId64"/>
+    <hyperlink ref="C47" r:id="rId65"/>
+    <hyperlink ref="C46" r:id="rId66"/>
+    <hyperlink ref="C45" r:id="rId67"/>
+    <hyperlink ref="C73" r:id="rId68"/>
+    <hyperlink ref="C74" r:id="rId69"/>
+    <hyperlink ref="C75" r:id="rId70"/>
+    <hyperlink ref="C76" r:id="rId71"/>
+    <hyperlink ref="C77" r:id="rId72"/>
+    <hyperlink ref="C78" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3619,14 +3722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
@@ -3635,83 +3738,83 @@
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>1399</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2599</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>2399</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>2799</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2699</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C9" s="6">
         <v>1499</v>
@@ -3729,12 +3832,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C10" s="6">
         <v>1499</v>
@@ -3752,12 +3855,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C11" s="6">
         <v>1499</v>
@@ -3775,12 +3878,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C12" s="6">
         <v>1499</v>
@@ -3798,12 +3901,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C13" s="8">
         <v>1199</v>
@@ -3821,12 +3924,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C14" s="8">
         <v>1199</v>
@@ -3844,12 +3947,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C15" s="8">
         <v>1199</v>
@@ -3867,12 +3970,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C16" s="8">
         <v>1199</v>
@@ -3890,12 +3993,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C17" s="8">
         <v>1199</v>
@@ -3913,12 +4016,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C18" s="10">
         <v>2599</v>
@@ -3936,12 +4039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C19" s="10">
         <v>2599</v>
@@ -3959,12 +4062,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C20" s="10">
         <v>2599</v>
@@ -3982,12 +4085,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C21" s="10">
         <v>2599</v>
@@ -4005,12 +4108,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C22" s="6">
         <v>2399</v>
@@ -4028,12 +4131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C23" s="6">
         <v>2399</v>
@@ -4051,12 +4154,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C24" s="6">
         <v>2399</v>
@@ -4074,12 +4177,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C25" s="6">
         <v>2399</v>
@@ -4097,12 +4200,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C26" s="6">
         <v>2399</v>
@@ -4120,12 +4223,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C27" s="8">
         <v>2899</v>
@@ -4143,12 +4246,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C28" s="8">
         <v>2899</v>
@@ -4166,12 +4269,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C29" s="8">
         <v>2899</v>
@@ -4189,12 +4292,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C30" s="8">
         <v>2899</v>
@@ -4212,12 +4315,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C31" s="8">
         <v>2899</v>
@@ -4235,12 +4338,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C32" s="8">
         <v>2899</v>
@@ -4258,12 +4361,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C33" s="10">
         <v>2699</v>
@@ -4281,12 +4384,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C34" s="10">
         <v>2699</v>
@@ -4304,12 +4407,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C35" s="10">
         <v>2699</v>
@@ -4327,12 +4430,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C36" s="10">
         <v>2699</v>
@@ -4350,12 +4453,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C37" s="10">
         <v>2699</v>
@@ -4373,12 +4476,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C38" s="10">
         <v>2699</v>
@@ -4399,12 +4502,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4417,207 +4520,207 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>698</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>899</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>899</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C9">
         <v>1499</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <v>1299</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C12">
         <v>2099</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C13">
         <v>1699</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C14">
         <v>1758</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C15">
         <v>2399</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C16">
         <v>2898</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C17">
         <v>2899</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C18">
         <v>1999</v>
@@ -4626,23 +4729,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4655,75 +4758,75 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>495</v>
@@ -4732,11 +4835,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4749,15 +4852,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="11" bestFit="1" customWidth="1"/>
@@ -4765,396 +4868,396 @@
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="D1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.25" hidden="1">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" s="11">
         <v>2080</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>4699</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="14.25" hidden="1">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B3" s="11">
         <v>2080</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>5199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="14.25" hidden="1">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B4" s="11">
         <v>2070</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>4199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="14.25" hidden="1">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>4099</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="14.25" hidden="1">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>5299</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="14.25" hidden="1">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>4799</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="14.25" hidden="1">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B8" s="11">
         <v>2080</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>5799</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="14.25" hidden="1">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B9" s="11">
         <v>2070</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>3699</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="14.25" hidden="1">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B10" s="11">
         <v>2080</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>5449</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>5699</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="14.25" hidden="1">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B12" s="11">
         <v>2070</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>4069</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="14.25" hidden="1">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D13">
         <v>3999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>5499</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>5699</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="14.25" hidden="1">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" s="11">
         <v>2070</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>4999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>5699</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="14.25" hidden="1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B18" s="11">
         <v>2070</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>3899</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="14.25" hidden="1">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>4699</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="14.25" hidden="1">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B20" s="11">
         <v>2080</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>5899</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <v>5399</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="14.25" hidden="1">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B22" s="11">
         <v>2070</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>3999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="14.25" hidden="1">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>4399</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="14.25" hidden="1">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B24" s="11">
         <v>2080</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D24">
         <v>5939</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="14.25" hidden="1">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B25" s="11">
         <v>2070</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>4599</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="14.25" hidden="1">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B26" s="11">
         <v>2070</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D26">
         <v>3699</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>5599</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="14.25" hidden="1">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B28" s="11">
         <v>2080</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D28">
         <v>5599</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="14.25" hidden="1">
       <c r="C29" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0000-000005000000}">
+  <autoFilter ref="A1:D29">
     <filterColumn colId="1">
       <filters>
         <filter val="2080s"/>
@@ -5166,29 +5269,29 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C20" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C21" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C17" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="C26" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="C25" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="C28" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="C27" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="C12" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="C14" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="C15" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="C2" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="C6" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId2"/>
+    <hyperlink ref="C20" r:id="rId3"/>
+    <hyperlink ref="C21" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C4" r:id="rId11"/>
+    <hyperlink ref="C26" r:id="rId12"/>
+    <hyperlink ref="C25" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C28" r:id="rId17"/>
+    <hyperlink ref="C27" r:id="rId18"/>
+    <hyperlink ref="C12" r:id="rId19"/>
+    <hyperlink ref="C14" r:id="rId20"/>
+    <hyperlink ref="C15" r:id="rId21"/>
+    <hyperlink ref="C2" r:id="rId22"/>
+    <hyperlink ref="C6" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5201,75 +5304,75 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C3">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C4">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>299</v>
@@ -5278,11 +5381,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5295,86 +5398,86 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>769</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>1249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>809</v>
@@ -5383,12 +5486,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5401,128 +5504,76 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C2">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>289</v>
-      </c>
-      <c r="D5">
-        <f>C5/1</f>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6">
-        <v>389</v>
-      </c>
-      <c r="D6">
-        <f>C6/2</f>
-        <v>194.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>509</v>
-      </c>
-      <c r="D7">
-        <f>C7/3</f>
-        <v>169.66666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
         <v>599</v>
-      </c>
-      <c r="D8">
-        <f>C8/4</f>
-        <v>149.75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/装机清单.xlsx
+++ b/装机清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="10920" tabRatio="500"/>
+    <workbookView xWindow="2440" yWindow="1180" windowWidth="31560" windowHeight="17980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="配置清单" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="电源" sheetId="17" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">显卡!$A$1:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">显卡!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="191">
   <si>
     <t>Intel i5 9400F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,13 +342,6 @@
   </si>
   <si>
     <t>微星 万图师 GeForce RTX 2080 SUPER VENTUS OC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100005787582.html</t>
-  </si>
-  <si>
-    <t>铭瑄 MS-GeForce RTX2070 iCraft GM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1374,7 +1367,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1388,27 +1381,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="F1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2">
         <f>VLOOKUP(B2,基础信息!$B:$O,$G$1,FALSE)</f>
-        <v>2359</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="str">
         <f>IF(B2=$F$3,$G$3,IF(B2=$F$4,$G$4,IF(B2=$F$5,$G$5,IF(B2=$F$6,$G$6,IF(B2=$F$7,$G$7,IF(B2=$F$8,$G$8,0))))))</f>
@@ -1422,30 +1415,30 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <f>VLOOKUP(B4,基础信息!$B:$O,$G$1,FALSE)</f>
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" t="str">
         <f>IF($G$10=$F$11,$G$11,IF($G$10=$F$12,$G$12,IF($G$10=$F$13,$G$13,IF($G$10=$F$14,$G$14,0))))</f>
@@ -1459,51 +1452,51 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6">
         <f>VLOOKUP(B6,基础信息!$B:$O,$G$1,FALSE)</f>
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <f>VLOOKUP(B7,基础信息!$B:$O,$G$1,FALSE)</f>
-        <v>739</v>
+        <v>819</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8">
         <f>VLOOKUP(B8,基础信息!$B:$O,$G$1,FALSE)</f>
@@ -1513,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1521,52 +1514,52 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9">
         <f>VLOOKUP(B9,基础信息!$B:$O,$G$1,FALSE)</f>
-        <v>279</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10">
         <f>VLOOKUP(B10,基础信息!$B:$O,$G$1,FALSE)</f>
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <f>SUM(C2:C10)</f>
-        <v>9551</v>
+        <v>9741</v>
       </c>
       <c r="F11" s="2">
         <v>2070</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1574,15 +1567,15 @@
         <v>2080</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="F14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1669,26 +1662,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1724,26 +1717,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1765,11 +1758,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1823,13 +1816,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>1599</v>
@@ -1851,6 +1844,9 @@
       </c>
       <c r="J2">
         <v>1499</v>
+      </c>
+      <c r="K2">
+        <v>1399</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1881,6 +1877,9 @@
       <c r="J3">
         <v>1119</v>
       </c>
+      <c r="K3">
+        <v>1199</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="2" t="s">
@@ -1910,6 +1909,9 @@
       <c r="J4">
         <v>2459</v>
       </c>
+      <c r="K4">
+        <v>2499</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1">
       <c r="B5" s="4" t="s">
@@ -1939,6 +1941,9 @@
       <c r="J5" s="3">
         <v>2359</v>
       </c>
+      <c r="K5" s="3">
+        <v>2399</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="2" t="s">
@@ -1968,6 +1973,9 @@
       <c r="J6">
         <v>2799</v>
       </c>
+      <c r="K6">
+        <v>2899</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="2" t="s">
@@ -1997,16 +2005,19 @@
       <c r="J7">
         <v>2649</v>
       </c>
+      <c r="K7">
+        <v>2699</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>4599</v>
@@ -2026,13 +2037,16 @@
       <c r="J8">
         <v>4899</v>
       </c>
+      <c r="K8">
+        <v>4899</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>5099</v>
@@ -2051,6 +2065,9 @@
       </c>
       <c r="J9">
         <v>5099</v>
+      </c>
+      <c r="K9">
+        <v>5399</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2078,6 +2095,9 @@
       <c r="J10">
         <v>4199</v>
       </c>
+      <c r="K10">
+        <v>4199</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" t="s">
@@ -2104,6 +2124,9 @@
       <c r="J11">
         <v>4399</v>
       </c>
+      <c r="K11">
+        <v>3999</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" t="s">
@@ -2130,6 +2153,9 @@
       <c r="J12">
         <v>5299</v>
       </c>
+      <c r="K12">
+        <v>5299</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" t="s">
@@ -2156,6 +2182,9 @@
       <c r="J13">
         <v>4599</v>
       </c>
+      <c r="K13">
+        <v>4999</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" t="s">
@@ -2182,6 +2211,9 @@
       <c r="J14">
         <v>5399</v>
       </c>
+      <c r="K14">
+        <v>5299</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" t="s">
@@ -2208,6 +2240,9 @@
       <c r="J15">
         <v>4599</v>
       </c>
+      <c r="K15">
+        <v>4599</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" t="s">
@@ -2234,8 +2269,11 @@
       <c r="J16">
         <v>3949</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="K16">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" t="s">
         <v>62</v>
       </c>
@@ -2263,8 +2301,11 @@
       <c r="J17">
         <v>5449</v>
       </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="K17">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" t="s">
         <v>66</v>
       </c>
@@ -2289,273 +2330,306 @@
       <c r="J18">
         <v>5599</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
+      <c r="K18">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="3" customFormat="1">
+      <c r="B19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3999</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3999</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E19">
-        <v>4069</v>
-      </c>
-      <c r="F19">
-        <v>4069</v>
-      </c>
-      <c r="G19">
-        <v>4069</v>
-      </c>
-      <c r="H19">
-        <v>4069</v>
-      </c>
-      <c r="I19">
-        <v>4069</v>
-      </c>
-      <c r="J19">
-        <v>4069</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" s="3" customFormat="1">
-      <c r="B20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="E20">
+        <v>5299</v>
+      </c>
+      <c r="F20">
+        <v>5499</v>
+      </c>
+      <c r="G20">
+        <v>5499</v>
+      </c>
+      <c r="H20">
+        <v>5499</v>
+      </c>
+      <c r="I20">
+        <v>5499</v>
+      </c>
+      <c r="J20">
+        <v>5099</v>
+      </c>
+      <c r="K20">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>5699</v>
+      </c>
+      <c r="F21">
+        <v>5699</v>
+      </c>
+      <c r="G21">
+        <v>5699</v>
+      </c>
+      <c r="H21">
+        <v>5699</v>
+      </c>
+      <c r="I21">
+        <v>5699</v>
+      </c>
+      <c r="J21">
+        <v>5699</v>
+      </c>
+      <c r="K21">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>4999</v>
+      </c>
+      <c r="F22">
+        <v>4999</v>
+      </c>
+      <c r="G22">
+        <v>4999</v>
+      </c>
+      <c r="H22">
+        <v>4999</v>
+      </c>
+      <c r="I22">
+        <v>4999</v>
+      </c>
+      <c r="J22">
+        <v>4999</v>
+      </c>
+      <c r="K22">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>5399</v>
+      </c>
+      <c r="F23">
+        <v>5699</v>
+      </c>
+      <c r="G23">
+        <v>5699</v>
+      </c>
+      <c r="H23">
+        <v>5699</v>
+      </c>
+      <c r="I23">
+        <v>5699</v>
+      </c>
+      <c r="J23">
+        <v>5299</v>
+      </c>
+      <c r="K23">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24">
+        <v>3899</v>
+      </c>
+      <c r="F24">
+        <v>3899</v>
+      </c>
+      <c r="G24">
+        <v>3899</v>
+      </c>
+      <c r="H24">
+        <v>3899</v>
+      </c>
+      <c r="I24">
+        <v>3899</v>
+      </c>
+      <c r="J24">
+        <v>3899</v>
+      </c>
+      <c r="K24">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="3" customFormat="1">
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4499</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4699</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4699</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4699</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4699</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4499</v>
+      </c>
+      <c r="K25" s="3">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>4699</v>
+      </c>
+      <c r="F26">
+        <v>5899</v>
+      </c>
+      <c r="G26">
+        <v>5899</v>
+      </c>
+      <c r="H26">
+        <v>5899</v>
+      </c>
+      <c r="I26">
+        <v>5899</v>
+      </c>
+      <c r="J26">
+        <v>5899</v>
+      </c>
+      <c r="K26">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>5399</v>
+      </c>
+      <c r="F27">
+        <v>5699</v>
+      </c>
+      <c r="G27">
+        <v>5699</v>
+      </c>
+      <c r="H27">
+        <v>5399</v>
+      </c>
+      <c r="I27">
+        <v>5699</v>
+      </c>
+      <c r="J27">
+        <v>5299</v>
+      </c>
+      <c r="K27">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28">
         <v>3999</v>
       </c>
-      <c r="J20" s="3">
+      <c r="F28">
         <v>3999</v>
       </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21">
-        <v>5299</v>
-      </c>
-      <c r="F21">
-        <v>5499</v>
-      </c>
-      <c r="G21">
-        <v>5499</v>
-      </c>
-      <c r="H21">
-        <v>5499</v>
-      </c>
-      <c r="I21">
-        <v>5499</v>
-      </c>
-      <c r="J21">
-        <v>5099</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22">
-        <v>5699</v>
-      </c>
-      <c r="F22">
-        <v>5699</v>
-      </c>
-      <c r="G22">
-        <v>5699</v>
-      </c>
-      <c r="H22">
-        <v>5699</v>
-      </c>
-      <c r="I22">
-        <v>5699</v>
-      </c>
-      <c r="J22">
-        <v>5699</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23">
-        <v>4999</v>
-      </c>
-      <c r="F23">
-        <v>4999</v>
-      </c>
-      <c r="G23">
-        <v>4999</v>
-      </c>
-      <c r="H23">
-        <v>4999</v>
-      </c>
-      <c r="I23">
-        <v>4999</v>
-      </c>
-      <c r="J23">
-        <v>4999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24">
-        <v>5399</v>
-      </c>
-      <c r="F24">
-        <v>5699</v>
-      </c>
-      <c r="G24">
-        <v>5699</v>
-      </c>
-      <c r="H24">
-        <v>5699</v>
-      </c>
-      <c r="I24">
-        <v>5699</v>
-      </c>
-      <c r="J24">
-        <v>5299</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25">
-        <v>3899</v>
-      </c>
-      <c r="F25">
-        <v>3899</v>
-      </c>
-      <c r="G25">
-        <v>3899</v>
-      </c>
-      <c r="H25">
-        <v>3899</v>
-      </c>
-      <c r="I25">
-        <v>3899</v>
-      </c>
-      <c r="J25">
-        <v>3899</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" s="3" customFormat="1">
-      <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4499</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4699</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4699</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4699</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4699</v>
-      </c>
-      <c r="J26" s="3">
-        <v>4499</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27">
-        <v>4699</v>
-      </c>
-      <c r="F27">
-        <v>5899</v>
-      </c>
-      <c r="G27">
-        <v>5899</v>
-      </c>
-      <c r="H27">
-        <v>5899</v>
-      </c>
-      <c r="I27">
-        <v>5899</v>
-      </c>
-      <c r="J27">
-        <v>5899</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28">
-        <v>5399</v>
-      </c>
-      <c r="F28">
-        <v>5699</v>
-      </c>
       <c r="G28">
-        <v>5699</v>
+        <v>3999</v>
       </c>
       <c r="H28">
-        <v>5399</v>
+        <v>3999</v>
       </c>
       <c r="I28">
-        <v>5699</v>
+        <v>3999</v>
       </c>
       <c r="J28">
-        <v>5299</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+        <v>3999</v>
+      </c>
+      <c r="K28">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E29">
-        <v>3999</v>
+        <v>4399</v>
       </c>
       <c r="F29">
         <v>3999</v>
       </c>
       <c r="G29">
-        <v>3999</v>
+        <v>4399</v>
       </c>
       <c r="H29">
-        <v>3999</v>
+        <v>4399</v>
       </c>
       <c r="I29">
         <v>3999</v>
@@ -2563,611 +2637,668 @@
       <c r="J29">
         <v>3999</v>
       </c>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="K29">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30">
-        <v>4399</v>
+        <v>5939</v>
       </c>
       <c r="F30">
-        <v>3999</v>
+        <v>5939</v>
       </c>
       <c r="G30">
-        <v>4399</v>
+        <v>5939</v>
       </c>
       <c r="H30">
-        <v>4399</v>
+        <v>5939</v>
       </c>
       <c r="I30">
-        <v>3999</v>
+        <v>5939</v>
       </c>
       <c r="J30">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+        <v>5939</v>
+      </c>
+      <c r="K30">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E31">
-        <v>5939</v>
+        <v>4599</v>
       </c>
       <c r="F31">
-        <v>5939</v>
+        <v>3899</v>
       </c>
       <c r="G31">
-        <v>5939</v>
+        <v>4599</v>
       </c>
       <c r="H31">
-        <v>5939</v>
+        <v>4599</v>
       </c>
       <c r="I31">
-        <v>5939</v>
+        <v>3899</v>
       </c>
       <c r="J31">
-        <v>5939</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
+        <v>3899</v>
+      </c>
+      <c r="K31">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32">
-        <v>4599</v>
+        <v>3299</v>
       </c>
       <c r="F32">
-        <v>3899</v>
+        <v>3699</v>
       </c>
       <c r="G32">
-        <v>4599</v>
+        <v>3299</v>
       </c>
       <c r="H32">
-        <v>4599</v>
+        <v>3699</v>
       </c>
       <c r="I32">
-        <v>3899</v>
+        <v>3699</v>
       </c>
       <c r="J32">
-        <v>3899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>3699</v>
+      </c>
+      <c r="K32">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E33">
-        <v>3299</v>
+        <v>5699</v>
       </c>
       <c r="F33">
-        <v>3699</v>
+        <v>5599</v>
       </c>
       <c r="G33">
-        <v>3299</v>
+        <v>5699</v>
       </c>
       <c r="H33">
-        <v>3699</v>
+        <v>5599</v>
       </c>
       <c r="I33">
-        <v>3699</v>
+        <v>5699</v>
       </c>
       <c r="J33">
-        <v>3699</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>5699</v>
+      </c>
+      <c r="K33">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E34">
-        <v>5699</v>
+        <v>5599</v>
       </c>
       <c r="F34">
         <v>5599</v>
       </c>
       <c r="G34">
-        <v>5699</v>
+        <v>5599</v>
       </c>
       <c r="H34">
         <v>5599</v>
       </c>
       <c r="I34">
-        <v>5699</v>
+        <v>5599</v>
       </c>
       <c r="J34">
-        <v>5699</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>5599</v>
+      </c>
+      <c r="K34">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>299</v>
       </c>
       <c r="E35">
-        <v>5599</v>
+        <v>279</v>
       </c>
       <c r="F35">
-        <v>5599</v>
+        <v>289</v>
       </c>
       <c r="G35">
-        <v>5599</v>
+        <v>299</v>
       </c>
       <c r="H35">
-        <v>5599</v>
+        <v>289</v>
       </c>
       <c r="I35">
-        <v>5599</v>
+        <v>289</v>
       </c>
       <c r="J35">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>299</v>
-      </c>
-      <c r="E36">
-        <v>279</v>
-      </c>
-      <c r="F36">
         <v>289</v>
       </c>
-      <c r="G36">
-        <v>299</v>
-      </c>
-      <c r="H36">
+      <c r="K35">
         <v>289</v>
       </c>
-      <c r="I36">
-        <v>289</v>
-      </c>
-      <c r="J36">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="3" customFormat="1">
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1">
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D36" s="3">
         <v>429</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E36" s="3">
         <v>379</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F36" s="3">
         <v>389</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G36" s="3">
         <v>429</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H36" s="3">
         <v>389</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I36" s="3">
         <v>389</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J36" s="3">
         <v>389</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K36" s="3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>529</v>
+      </c>
+      <c r="E37">
+        <v>489</v>
+      </c>
+      <c r="F37">
+        <v>509</v>
+      </c>
+      <c r="G37">
+        <v>529</v>
+      </c>
+      <c r="H37">
+        <v>509</v>
+      </c>
+      <c r="I37">
+        <v>509</v>
+      </c>
+      <c r="J37">
+        <v>509</v>
+      </c>
+      <c r="K37">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="B38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>529</v>
+        <v>649</v>
       </c>
       <c r="E38">
-        <v>489</v>
+        <v>589</v>
       </c>
       <c r="F38">
-        <v>509</v>
+        <v>619</v>
       </c>
       <c r="G38">
-        <v>529</v>
+        <v>649</v>
       </c>
       <c r="H38">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="I38">
-        <v>509</v>
+        <v>589</v>
       </c>
       <c r="J38">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>589</v>
+      </c>
+      <c r="K38">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>649</v>
+        <v>259</v>
       </c>
       <c r="E39">
-        <v>589</v>
+        <v>249</v>
       </c>
       <c r="F39">
-        <v>619</v>
+        <v>259</v>
       </c>
       <c r="G39">
-        <v>649</v>
+        <v>259</v>
       </c>
       <c r="H39">
-        <v>599</v>
+        <v>239</v>
       </c>
       <c r="I39">
-        <v>589</v>
+        <v>239</v>
       </c>
       <c r="J39">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>100</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="K39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="B40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E40">
         <v>249</v>
       </c>
       <c r="F40">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G40">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H40">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I40">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="J40">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>255</v>
-      </c>
-      <c r="E41">
         <v>249</v>
       </c>
-      <c r="F41">
-        <v>255</v>
-      </c>
-      <c r="G41">
-        <v>255</v>
-      </c>
-      <c r="H41">
+      <c r="K40">
         <v>249</v>
       </c>
-      <c r="I41">
-        <v>249</v>
-      </c>
-      <c r="J41">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="3" customFormat="1">
-      <c r="B42" s="3" t="s">
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1">
+      <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D41" s="3">
         <v>499</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E41" s="3">
         <v>495</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F41" s="3">
         <v>495</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G41" s="3">
         <v>489</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H41" s="3">
         <v>479</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I41" s="3">
         <v>479</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J41" s="3">
         <v>479</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K41" s="3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42">
+        <v>569</v>
+      </c>
+      <c r="E42">
+        <v>559</v>
+      </c>
+      <c r="F42">
+        <v>555</v>
+      </c>
+      <c r="G42">
+        <v>569</v>
+      </c>
+      <c r="H42">
+        <v>559</v>
+      </c>
+      <c r="I42">
+        <v>559</v>
+      </c>
+      <c r="J42">
+        <v>559</v>
+      </c>
+      <c r="K42">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D43">
-        <v>569</v>
+        <v>499</v>
       </c>
       <c r="E43">
+        <v>495</v>
+      </c>
+      <c r="F43">
+        <v>499</v>
+      </c>
+      <c r="G43">
+        <v>499</v>
+      </c>
+      <c r="H43">
+        <v>495</v>
+      </c>
+      <c r="I43">
+        <v>495</v>
+      </c>
+      <c r="J43">
+        <v>495</v>
+      </c>
+      <c r="K43">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="3" customFormat="1">
+      <c r="A44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3">
+        <v>819</v>
+      </c>
+      <c r="E44" s="3">
+        <v>739</v>
+      </c>
+      <c r="F44" s="3">
+        <v>769</v>
+      </c>
+      <c r="G44" s="3">
+        <v>819</v>
+      </c>
+      <c r="H44" s="3">
+        <v>769</v>
+      </c>
+      <c r="I44" s="3">
+        <v>769</v>
+      </c>
+      <c r="J44" s="3">
+        <v>739</v>
+      </c>
+      <c r="K44" s="3">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>749</v>
+      </c>
+      <c r="E45">
+        <v>639</v>
+      </c>
+      <c r="F45">
+        <v>669</v>
+      </c>
+      <c r="G45">
+        <v>999</v>
+      </c>
+      <c r="H45">
+        <v>669</v>
+      </c>
+      <c r="I45">
+        <v>669</v>
+      </c>
+      <c r="J45">
+        <v>639</v>
+      </c>
+      <c r="K45">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46">
+        <v>1329</v>
+      </c>
+      <c r="E46">
+        <v>1299</v>
+      </c>
+      <c r="F46">
+        <v>1249</v>
+      </c>
+      <c r="G46">
+        <v>1329</v>
+      </c>
+      <c r="H46">
+        <v>1249</v>
+      </c>
+      <c r="I46">
+        <v>1249</v>
+      </c>
+      <c r="J46">
+        <v>1249</v>
+      </c>
+      <c r="K46">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>709</v>
+      </c>
+      <c r="E47">
+        <v>669</v>
+      </c>
+      <c r="F47">
+        <v>699</v>
+      </c>
+      <c r="G47">
+        <v>709</v>
+      </c>
+      <c r="H47">
+        <v>699</v>
+      </c>
+      <c r="I47">
+        <v>669</v>
+      </c>
+      <c r="J47">
+        <v>629</v>
+      </c>
+      <c r="K47">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48">
         <v>559</v>
       </c>
-      <c r="F43">
-        <v>555</v>
-      </c>
-      <c r="G43">
-        <v>569</v>
-      </c>
-      <c r="H43">
+      <c r="E48">
+        <v>529</v>
+      </c>
+      <c r="F48">
+        <v>539</v>
+      </c>
+      <c r="G48">
         <v>559</v>
       </c>
-      <c r="I43">
+      <c r="H48">
+        <v>539</v>
+      </c>
+      <c r="I48">
+        <v>529</v>
+      </c>
+      <c r="J48">
+        <v>528.9</v>
+      </c>
+      <c r="K48">
         <v>559</v>
       </c>
-      <c r="J43">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44">
-        <v>499</v>
-      </c>
-      <c r="E44">
-        <v>495</v>
-      </c>
-      <c r="F44">
-        <v>499</v>
-      </c>
-      <c r="G44">
-        <v>499</v>
-      </c>
-      <c r="H44">
-        <v>495</v>
-      </c>
-      <c r="I44">
-        <v>495</v>
-      </c>
-      <c r="J44">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="3" customFormat="1">
-      <c r="A45" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="3">
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49">
         <v>819</v>
       </c>
-      <c r="E45" s="3">
-        <v>739</v>
-      </c>
-      <c r="F45" s="3">
-        <v>769</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="E49">
+        <v>799</v>
+      </c>
+      <c r="F49">
+        <v>809</v>
+      </c>
+      <c r="G49">
         <v>819</v>
       </c>
-      <c r="H45" s="3">
-        <v>769</v>
-      </c>
-      <c r="I45" s="3">
-        <v>769</v>
-      </c>
-      <c r="J45" s="3">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46">
-        <v>749</v>
-      </c>
-      <c r="E46">
-        <v>639</v>
-      </c>
-      <c r="F46">
-        <v>669</v>
-      </c>
-      <c r="G46">
-        <v>999</v>
-      </c>
-      <c r="H46">
-        <v>669</v>
-      </c>
-      <c r="I46">
-        <v>669</v>
-      </c>
-      <c r="J46">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="B47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47">
-        <v>1329</v>
-      </c>
-      <c r="E47">
-        <v>1299</v>
-      </c>
-      <c r="F47">
-        <v>1249</v>
-      </c>
-      <c r="G47">
-        <v>1329</v>
-      </c>
-      <c r="H47">
-        <v>1249</v>
-      </c>
-      <c r="I47">
-        <v>1249</v>
-      </c>
-      <c r="J47">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48">
-        <v>709</v>
-      </c>
-      <c r="E48">
-        <v>669</v>
-      </c>
-      <c r="F48">
-        <v>699</v>
-      </c>
-      <c r="G48">
-        <v>709</v>
-      </c>
-      <c r="H48">
-        <v>699</v>
-      </c>
-      <c r="I48">
-        <v>669</v>
-      </c>
-      <c r="J48">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49">
-        <v>559</v>
-      </c>
-      <c r="E49">
-        <v>529</v>
-      </c>
-      <c r="F49">
-        <v>539</v>
-      </c>
-      <c r="G49">
-        <v>559</v>
-      </c>
       <c r="H49">
-        <v>539</v>
+        <v>809</v>
       </c>
       <c r="I49">
-        <v>529</v>
+        <v>799</v>
       </c>
       <c r="J49">
-        <v>528.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>759</v>
+      </c>
+      <c r="K49">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50">
-        <v>819</v>
-      </c>
-      <c r="E50">
-        <v>799</v>
-      </c>
-      <c r="F50">
-        <v>809</v>
-      </c>
-      <c r="G50">
-        <v>819</v>
+        <v>117</v>
       </c>
       <c r="H50">
-        <v>809</v>
+        <v>459</v>
       </c>
       <c r="I50">
-        <v>799</v>
+        <v>429</v>
       </c>
       <c r="J50">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="K50">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="B51" t="s">
         <v>120</v>
       </c>
@@ -3175,438 +3306,513 @@
         <v>119</v>
       </c>
       <c r="H51">
-        <v>459</v>
+        <v>329</v>
       </c>
       <c r="I51">
-        <v>429</v>
+        <v>299</v>
       </c>
       <c r="J51">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>279</v>
+      </c>
+      <c r="K51">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="B52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>121</v>
       </c>
       <c r="H52">
+        <v>219</v>
+      </c>
+      <c r="I52">
+        <v>199</v>
+      </c>
+      <c r="J52">
+        <v>219</v>
+      </c>
+      <c r="K52">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="3" customFormat="1">
+      <c r="B53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="3">
+        <v>269</v>
+      </c>
+      <c r="I53" s="3">
+        <v>249</v>
+      </c>
+      <c r="J53" s="3">
+        <v>269</v>
+      </c>
+      <c r="K53" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54">
+        <v>299</v>
+      </c>
+      <c r="I54">
+        <v>259</v>
+      </c>
+      <c r="J54">
+        <v>239</v>
+      </c>
+      <c r="K54">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55">
+        <v>699</v>
+      </c>
+      <c r="I55">
+        <v>699</v>
+      </c>
+      <c r="J55">
+        <v>699</v>
+      </c>
+      <c r="K55">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56">
+        <v>698</v>
+      </c>
+      <c r="I56">
+        <v>698</v>
+      </c>
+      <c r="J56">
+        <v>549</v>
+      </c>
+      <c r="K56">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57">
+        <v>629</v>
+      </c>
+      <c r="I57">
+        <v>629</v>
+      </c>
+      <c r="J57">
+        <v>569</v>
+      </c>
+      <c r="K57">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="3" customFormat="1">
+      <c r="B58" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>699</v>
+      </c>
+      <c r="I58" s="3">
+        <v>699</v>
+      </c>
+      <c r="J58" s="3">
+        <v>699</v>
+      </c>
+      <c r="K58" s="3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59">
+        <v>899</v>
+      </c>
+      <c r="I59">
+        <v>899</v>
+      </c>
+      <c r="J59">
+        <v>899</v>
+      </c>
+      <c r="K59">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60">
+        <v>1299</v>
+      </c>
+      <c r="I60">
+        <v>1299</v>
+      </c>
+      <c r="J60">
+        <v>1299</v>
+      </c>
+      <c r="K60">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H61">
+        <v>899</v>
+      </c>
+      <c r="I61">
+        <v>899</v>
+      </c>
+      <c r="J61">
+        <v>899</v>
+      </c>
+      <c r="K61">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62">
+        <v>1499</v>
+      </c>
+      <c r="I62">
+        <v>1499</v>
+      </c>
+      <c r="J62">
+        <v>1399</v>
+      </c>
+      <c r="K62">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H63">
+        <v>719</v>
+      </c>
+      <c r="I63">
+        <v>719</v>
+      </c>
+      <c r="J63">
+        <v>719</v>
+      </c>
+      <c r="K63">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H64">
+        <v>1299</v>
+      </c>
+      <c r="I64">
+        <v>1299</v>
+      </c>
+      <c r="J64">
+        <v>1299</v>
+      </c>
+      <c r="K64">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65">
+        <v>2099</v>
+      </c>
+      <c r="I65">
+        <v>2099</v>
+      </c>
+      <c r="J65">
+        <v>2099</v>
+      </c>
+      <c r="K65">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66">
+        <v>1699</v>
+      </c>
+      <c r="I66">
+        <v>1699</v>
+      </c>
+      <c r="J66">
+        <v>1699</v>
+      </c>
+      <c r="K66">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67">
+        <v>1758</v>
+      </c>
+      <c r="I67">
+        <v>1758</v>
+      </c>
+      <c r="J67">
+        <v>1458</v>
+      </c>
+      <c r="K67">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68">
+        <v>2399</v>
+      </c>
+      <c r="I68">
+        <v>2399</v>
+      </c>
+      <c r="J68">
+        <v>2199</v>
+      </c>
+      <c r="K68">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H69">
+        <v>2898</v>
+      </c>
+      <c r="I69">
+        <v>2898</v>
+      </c>
+      <c r="J69">
+        <v>2298</v>
+      </c>
+      <c r="K69">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70">
+        <v>2899</v>
+      </c>
+      <c r="I70">
+        <v>2899</v>
+      </c>
+      <c r="J70">
+        <v>2949</v>
+      </c>
+      <c r="K70">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H71">
+        <v>1999</v>
+      </c>
+      <c r="I71">
+        <v>1999</v>
+      </c>
+      <c r="J71">
+        <v>1999</v>
+      </c>
+      <c r="K71">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="3" customFormat="1">
+      <c r="A72" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I72" s="3">
+        <v>349</v>
+      </c>
+      <c r="J72" s="3">
+        <v>279</v>
+      </c>
+      <c r="K72" s="3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="B73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I73">
+        <v>219</v>
+      </c>
+      <c r="J73">
+        <v>189</v>
+      </c>
+      <c r="K73">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="B74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I74">
+        <v>259</v>
+      </c>
+      <c r="J74">
+        <v>229</v>
+      </c>
+      <c r="K74">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="3" customFormat="1">
+      <c r="A75" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I75" s="3">
+        <v>339</v>
+      </c>
+      <c r="J75" s="3">
+        <v>339</v>
+      </c>
+      <c r="K75" s="3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I76">
         <v>329</v>
       </c>
-      <c r="I52">
+      <c r="J76">
         <v>299</v>
       </c>
-      <c r="J52">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="B53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53">
-        <v>219</v>
-      </c>
-      <c r="I53">
-        <v>199</v>
-      </c>
-      <c r="J53">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="3" customFormat="1">
-      <c r="B54" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H54" s="3">
-        <v>269</v>
-      </c>
-      <c r="I54" s="3">
-        <v>249</v>
-      </c>
-      <c r="J54" s="3">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55">
-        <v>299</v>
-      </c>
-      <c r="I55">
-        <v>259</v>
-      </c>
-      <c r="J55">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H56">
-        <v>699</v>
-      </c>
-      <c r="I56">
-        <v>699</v>
-      </c>
-      <c r="J56">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="B57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H57">
-        <v>698</v>
-      </c>
-      <c r="I57">
-        <v>698</v>
-      </c>
-      <c r="J57">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H58">
-        <v>629</v>
-      </c>
-      <c r="I58">
-        <v>629</v>
-      </c>
-      <c r="J58">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="3" customFormat="1">
-      <c r="B59" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="3">
-        <v>699</v>
-      </c>
-      <c r="I59" s="3">
-        <v>699</v>
-      </c>
-      <c r="J59" s="3">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60">
-        <v>899</v>
-      </c>
-      <c r="I60">
-        <v>899</v>
-      </c>
-      <c r="J60">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="B61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61">
-        <v>1299</v>
-      </c>
-      <c r="I61">
-        <v>1299</v>
-      </c>
-      <c r="J61">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62">
-        <v>899</v>
-      </c>
-      <c r="I62">
-        <v>899</v>
-      </c>
-      <c r="J62">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63">
-        <v>1499</v>
-      </c>
-      <c r="I63">
-        <v>1499</v>
-      </c>
-      <c r="J63">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H64">
-        <v>719</v>
-      </c>
-      <c r="I64">
-        <v>719</v>
-      </c>
-      <c r="J64">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="B65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65">
-        <v>1299</v>
-      </c>
-      <c r="I65">
-        <v>1299</v>
-      </c>
-      <c r="J65">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="B66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66">
-        <v>2099</v>
-      </c>
-      <c r="I66">
-        <v>2099</v>
-      </c>
-      <c r="J66">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="B67" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H67">
-        <v>1699</v>
-      </c>
-      <c r="I67">
-        <v>1699</v>
-      </c>
-      <c r="J67">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="B68" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H68">
-        <v>1758</v>
-      </c>
-      <c r="I68">
-        <v>1758</v>
-      </c>
-      <c r="J68">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="B69" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H69">
-        <v>2399</v>
-      </c>
-      <c r="I69">
-        <v>2399</v>
-      </c>
-      <c r="J69">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="B70" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H70">
-        <v>2898</v>
-      </c>
-      <c r="I70">
-        <v>2898</v>
-      </c>
-      <c r="J70">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H71">
-        <v>2899</v>
-      </c>
-      <c r="I71">
-        <v>2899</v>
-      </c>
-      <c r="J71">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H72">
-        <v>1999</v>
-      </c>
-      <c r="I72">
-        <v>1999</v>
-      </c>
-      <c r="J72">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="3" customFormat="1">
-      <c r="A73" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I73" s="3">
+      <c r="K76">
         <v>349</v>
       </c>
-      <c r="J73" s="3">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" t="s">
-        <v>176</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I74">
-        <v>219</v>
-      </c>
-      <c r="J74">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" t="s">
-        <v>180</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I75">
-        <v>259</v>
-      </c>
-      <c r="J75">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="3" customFormat="1">
-      <c r="A76" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="I76" s="3">
-        <v>339</v>
-      </c>
-      <c r="J76" s="3">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+    </row>
+    <row r="77" spans="1:11">
       <c r="B77" t="s">
         <v>183</v>
       </c>
@@ -3614,66 +3820,55 @@
         <v>182</v>
       </c>
       <c r="I77">
-        <v>329</v>
+        <v>649</v>
       </c>
       <c r="J77">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="B78" t="s">
-        <v>185</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I78">
-        <v>649</v>
-      </c>
-      <c r="J78">
         <v>599</v>
+      </c>
+      <c r="K77">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1"/>
-    <hyperlink ref="C37" r:id="rId2"/>
-    <hyperlink ref="C38" r:id="rId3"/>
-    <hyperlink ref="C36" r:id="rId4"/>
+    <hyperlink ref="C38" r:id="rId1"/>
+    <hyperlink ref="C36" r:id="rId2"/>
+    <hyperlink ref="C37" r:id="rId3"/>
+    <hyperlink ref="C35" r:id="rId4"/>
     <hyperlink ref="C2" r:id="rId5"/>
     <hyperlink ref="C3" r:id="rId6"/>
     <hyperlink ref="C4" r:id="rId7"/>
     <hyperlink ref="C5" r:id="rId8"/>
     <hyperlink ref="C6" r:id="rId9"/>
     <hyperlink ref="C7" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C58" r:id="rId13"/>
-    <hyperlink ref="C59" r:id="rId14"/>
-    <hyperlink ref="C60" r:id="rId15"/>
-    <hyperlink ref="C61" r:id="rId16"/>
-    <hyperlink ref="C62" r:id="rId17"/>
-    <hyperlink ref="C63" r:id="rId18"/>
-    <hyperlink ref="C64" r:id="rId19"/>
-    <hyperlink ref="C65" r:id="rId20"/>
-    <hyperlink ref="C66" r:id="rId21"/>
-    <hyperlink ref="C67" r:id="rId22"/>
-    <hyperlink ref="C68" r:id="rId23"/>
-    <hyperlink ref="C69" r:id="rId24"/>
-    <hyperlink ref="C70" r:id="rId25"/>
-    <hyperlink ref="C71" r:id="rId26"/>
-    <hyperlink ref="C72" r:id="rId27"/>
-    <hyperlink ref="C40" r:id="rId28"/>
-    <hyperlink ref="C41" r:id="rId29"/>
-    <hyperlink ref="C42" r:id="rId30"/>
-    <hyperlink ref="C43" r:id="rId31"/>
-    <hyperlink ref="C44" r:id="rId32"/>
-    <hyperlink ref="C25" r:id="rId33"/>
-    <hyperlink ref="C23" r:id="rId34"/>
-    <hyperlink ref="C27" r:id="rId35"/>
-    <hyperlink ref="C28" r:id="rId36"/>
-    <hyperlink ref="C24" r:id="rId37"/>
+    <hyperlink ref="C55" r:id="rId11"/>
+    <hyperlink ref="C56" r:id="rId12"/>
+    <hyperlink ref="C57" r:id="rId13"/>
+    <hyperlink ref="C58" r:id="rId14"/>
+    <hyperlink ref="C59" r:id="rId15"/>
+    <hyperlink ref="C60" r:id="rId16"/>
+    <hyperlink ref="C61" r:id="rId17"/>
+    <hyperlink ref="C62" r:id="rId18"/>
+    <hyperlink ref="C63" r:id="rId19"/>
+    <hyperlink ref="C64" r:id="rId20"/>
+    <hyperlink ref="C65" r:id="rId21"/>
+    <hyperlink ref="C66" r:id="rId22"/>
+    <hyperlink ref="C67" r:id="rId23"/>
+    <hyperlink ref="C68" r:id="rId24"/>
+    <hyperlink ref="C69" r:id="rId25"/>
+    <hyperlink ref="C70" r:id="rId26"/>
+    <hyperlink ref="C71" r:id="rId27"/>
+    <hyperlink ref="C39" r:id="rId28"/>
+    <hyperlink ref="C40" r:id="rId29"/>
+    <hyperlink ref="C41" r:id="rId30"/>
+    <hyperlink ref="C42" r:id="rId31"/>
+    <hyperlink ref="C43" r:id="rId32"/>
+    <hyperlink ref="C24" r:id="rId33"/>
+    <hyperlink ref="C22" r:id="rId34"/>
+    <hyperlink ref="C26" r:id="rId35"/>
+    <hyperlink ref="C27" r:id="rId36"/>
+    <hyperlink ref="C23" r:id="rId37"/>
     <hyperlink ref="C15" r:id="rId38"/>
     <hyperlink ref="C13" r:id="rId39"/>
     <hyperlink ref="C16" r:id="rId40"/>
@@ -3681,35 +3876,34 @@
     <hyperlink ref="C14" r:id="rId42"/>
     <hyperlink ref="C18" r:id="rId43"/>
     <hyperlink ref="C10" r:id="rId44"/>
-    <hyperlink ref="C33" r:id="rId45"/>
-    <hyperlink ref="C32" r:id="rId46"/>
-    <hyperlink ref="C26" r:id="rId47"/>
-    <hyperlink ref="C30" r:id="rId48"/>
-    <hyperlink ref="C31" r:id="rId49"/>
-    <hyperlink ref="C35" r:id="rId50"/>
-    <hyperlink ref="C34" r:id="rId51"/>
-    <hyperlink ref="C19" r:id="rId52"/>
+    <hyperlink ref="C32" r:id="rId45"/>
+    <hyperlink ref="C31" r:id="rId46"/>
+    <hyperlink ref="C25" r:id="rId47"/>
+    <hyperlink ref="C29" r:id="rId48"/>
+    <hyperlink ref="C30" r:id="rId49"/>
+    <hyperlink ref="C34" r:id="rId50"/>
+    <hyperlink ref="C33" r:id="rId51"/>
+    <hyperlink ref="C20" r:id="rId52"/>
     <hyperlink ref="C21" r:id="rId53"/>
-    <hyperlink ref="C22" r:id="rId54"/>
-    <hyperlink ref="C8" r:id="rId55"/>
-    <hyperlink ref="C12" r:id="rId56"/>
+    <hyperlink ref="C8" r:id="rId54"/>
+    <hyperlink ref="C12" r:id="rId55"/>
+    <hyperlink ref="C50" r:id="rId56"/>
     <hyperlink ref="C51" r:id="rId57"/>
     <hyperlink ref="C52" r:id="rId58"/>
     <hyperlink ref="C53" r:id="rId59"/>
     <hyperlink ref="C54" r:id="rId60"/>
-    <hyperlink ref="C55" r:id="rId61"/>
-    <hyperlink ref="C50" r:id="rId62"/>
-    <hyperlink ref="C49" r:id="rId63"/>
-    <hyperlink ref="C48" r:id="rId64"/>
-    <hyperlink ref="C47" r:id="rId65"/>
-    <hyperlink ref="C46" r:id="rId66"/>
-    <hyperlink ref="C45" r:id="rId67"/>
+    <hyperlink ref="C49" r:id="rId61"/>
+    <hyperlink ref="C48" r:id="rId62"/>
+    <hyperlink ref="C47" r:id="rId63"/>
+    <hyperlink ref="C46" r:id="rId64"/>
+    <hyperlink ref="C45" r:id="rId65"/>
+    <hyperlink ref="C44" r:id="rId66"/>
+    <hyperlink ref="C72" r:id="rId67"/>
     <hyperlink ref="C73" r:id="rId68"/>
     <hyperlink ref="C74" r:id="rId69"/>
     <hyperlink ref="C75" r:id="rId70"/>
     <hyperlink ref="C76" r:id="rId71"/>
     <hyperlink ref="C77" r:id="rId72"/>
-    <hyperlink ref="C78" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3748,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>1399</v>
@@ -3814,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6">
         <v>1499</v>
@@ -3837,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="6">
         <v>1499</v>
@@ -3860,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" s="6">
         <v>1499</v>
@@ -3883,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="6">
         <v>1499</v>
@@ -3906,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="8">
         <v>1199</v>
@@ -3929,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="8">
         <v>1199</v>
@@ -3952,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C15" s="8">
         <v>1199</v>
@@ -3975,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" s="8">
         <v>1199</v>
@@ -3998,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="8">
         <v>1199</v>
@@ -4021,7 +4215,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="10">
         <v>2599</v>
@@ -4044,7 +4238,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19" s="10">
         <v>2599</v>
@@ -4067,7 +4261,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="10">
         <v>2599</v>
@@ -4090,7 +4284,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21" s="10">
         <v>2599</v>
@@ -4113,7 +4307,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="6">
         <v>2399</v>
@@ -4136,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" s="6">
         <v>2399</v>
@@ -4159,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="6">
         <v>2399</v>
@@ -4182,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="6">
         <v>2399</v>
@@ -4205,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="6">
         <v>2399</v>
@@ -4228,7 +4422,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27" s="8">
         <v>2899</v>
@@ -4251,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C28" s="8">
         <v>2899</v>
@@ -4274,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C29" s="8">
         <v>2899</v>
@@ -4297,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" s="8">
         <v>2899</v>
@@ -4320,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" s="8">
         <v>2899</v>
@@ -4343,7 +4537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" s="8">
         <v>2899</v>
@@ -4366,7 +4560,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C33" s="10">
         <v>2699</v>
@@ -4389,7 +4583,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" s="10">
         <v>2699</v>
@@ -4412,7 +4606,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" s="10">
         <v>2699</v>
@@ -4435,7 +4629,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C36" s="10">
         <v>2699</v>
@@ -4458,7 +4652,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C37" s="10">
         <v>2699</v>
@@ -4481,7 +4675,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C38" s="10">
         <v>2699</v>
@@ -4541,10 +4735,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>699</v>
@@ -4552,10 +4746,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>698</v>
@@ -4563,10 +4757,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4">
         <v>629</v>
@@ -4574,10 +4768,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>699</v>
@@ -4585,10 +4779,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>899</v>
@@ -4596,10 +4790,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>1299</v>
@@ -4607,10 +4801,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <v>899</v>
@@ -4618,10 +4812,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9">
         <v>1499</v>
@@ -4629,10 +4823,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>719</v>
@@ -4640,10 +4834,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11">
         <v>1299</v>
@@ -4651,10 +4845,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12">
         <v>2099</v>
@@ -4662,10 +4856,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13">
         <v>1699</v>
@@ -4673,10 +4867,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14">
         <v>1758</v>
@@ -4684,10 +4878,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15">
         <v>2399</v>
@@ -4695,10 +4889,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16">
         <v>2898</v>
@@ -4706,10 +4900,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17">
         <v>2899</v>
@@ -4717,10 +4911,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18">
         <v>1999</v>
@@ -4854,10 +5048,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4875,13 +5069,13 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" hidden="1">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="11">
         <v>2080</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>4699</v>
@@ -4889,13 +5083,13 @@
     </row>
     <row r="3" spans="1:4" ht="14.25" hidden="1">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="11">
         <v>2080</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>5199</v>
@@ -4915,12 +5109,12 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" hidden="1">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>72</v>
@@ -4929,12 +5123,12 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" hidden="1">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>70</v>
@@ -4943,12 +5137,12 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" hidden="1">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>57</v>
@@ -4999,12 +5193,12 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>65</v>
@@ -5013,254 +5207,240 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" hidden="1">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" hidden="1">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="11">
         <v>2070</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12">
-        <v>4069</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" hidden="1">
-      <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14">
-        <v>5499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D15">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
         <v>5699</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" hidden="1">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="11">
+    <row r="17" spans="1:4" ht="14.25" hidden="1">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="11">
         <v>2070</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>4999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>5699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" hidden="1">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2070</v>
+        <v>48</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>3899</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" hidden="1">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>110</v>
+        <v>49</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2080</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>4699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" hidden="1">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="11">
-        <v>2080</v>
+        <v>52</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>5899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" hidden="1">
       <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2070</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D21">
-        <v>5399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" hidden="1">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="11">
-        <v>2070</v>
+        <v>78</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>3999</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" hidden="1">
       <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2080</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D23">
-        <v>4399</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" hidden="1">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B24" s="11">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>5939</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" hidden="1">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="11">
         <v>2070</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25">
-        <v>4599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" hidden="1">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="11">
-        <v>2070</v>
+        <v>84</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D26">
-        <v>3699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" hidden="1">
       <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>111</v>
+        <v>82</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2080</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27">
         <v>5599</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" hidden="1">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="11">
-        <v>2080</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.25" hidden="1">
-      <c r="C29" t="s">
-        <v>170</v>
+      <c r="C28" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D29">
+  <autoFilter ref="A1:D28">
     <filterColumn colId="1">
       <filters>
-        <filter val="2080s"/>
+        <filter val="2070s"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:D29">
@@ -5269,29 +5449,28 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1"/>
-    <hyperlink ref="C16" r:id="rId2"/>
-    <hyperlink ref="C20" r:id="rId3"/>
-    <hyperlink ref="C21" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId1"/>
+    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId3"/>
+    <hyperlink ref="C20" r:id="rId4"/>
+    <hyperlink ref="C16" r:id="rId5"/>
     <hyperlink ref="C9" r:id="rId6"/>
     <hyperlink ref="C7" r:id="rId7"/>
     <hyperlink ref="C10" r:id="rId8"/>
     <hyperlink ref="C8" r:id="rId9"/>
     <hyperlink ref="C11" r:id="rId10"/>
     <hyperlink ref="C4" r:id="rId11"/>
-    <hyperlink ref="C26" r:id="rId12"/>
-    <hyperlink ref="C25" r:id="rId13"/>
-    <hyperlink ref="C19" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C28" r:id="rId17"/>
-    <hyperlink ref="C27" r:id="rId18"/>
-    <hyperlink ref="C12" r:id="rId19"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C24" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C22" r:id="rId15"/>
+    <hyperlink ref="C23" r:id="rId16"/>
+    <hyperlink ref="C27" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C13" r:id="rId19"/>
     <hyperlink ref="C14" r:id="rId20"/>
-    <hyperlink ref="C15" r:id="rId21"/>
-    <hyperlink ref="C2" r:id="rId22"/>
-    <hyperlink ref="C6" r:id="rId23"/>
+    <hyperlink ref="C2" r:id="rId21"/>
+    <hyperlink ref="C6" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5325,10 +5504,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>459</v>
@@ -5336,10 +5515,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3">
         <v>329</v>
@@ -5347,10 +5526,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>219</v>
@@ -5358,10 +5537,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>269</v>
@@ -5369,10 +5548,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>299</v>

--- a/装机清单.xlsx
+++ b/装机清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\PublicDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E49C35-7A7A-41CD-B821-1CDF318A370E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1180" windowWidth="31560" windowHeight="17980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置清单" sheetId="11" r:id="rId1"/>
@@ -22,23 +28,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">显卡!$A$1:$D$28</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="193">
   <si>
     <t>Intel i5 9400F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,12 +710,20 @@
   </si>
   <si>
     <t>2070s</t>
+  </si>
+  <si>
+    <t>JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -899,7 +913,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="97"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -915,8 +929,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="97" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="111">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -966,68 +984,67 @@
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1363,31 +1380,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
       <c r="F1" t="s">
         <v>116</v>
       </c>
       <c r="G1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1396,10 +1419,13 @@
       </c>
       <c r="C2">
         <f>VLOOKUP(B2,基础信息!$B:$O,$G$1,FALSE)</f>
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2359</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1411,6 +1437,7 @@
         <f>VLOOKUP(B3,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>699</v>
       </c>
+      <c r="D3" s="13"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1445,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1427,7 +1454,10 @@
       </c>
       <c r="C4">
         <f>VLOOKUP(B4,基础信息!$B:$O,$G$1,FALSE)</f>
-        <v>489</v>
+        <v>499</v>
+      </c>
+      <c r="D4">
+        <v>459</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
@@ -1436,7 +1466,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1448,6 +1478,9 @@
         <f>VLOOKUP(B5,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>3999</v>
       </c>
+      <c r="D5">
+        <v>3899</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -1464,6 +1497,9 @@
       </c>
       <c r="C6">
         <f>VLOOKUP(B6,基础信息!$B:$O,$G$1,FALSE)</f>
+        <v>269</v>
+      </c>
+      <c r="D6">
         <v>229</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1473,7 +1509,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -1482,7 +1518,10 @@
       </c>
       <c r="C7">
         <f>VLOOKUP(B7,基础信息!$B:$O,$G$1,FALSE)</f>
-        <v>819</v>
+        <v>769</v>
+      </c>
+      <c r="D7">
+        <v>739</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
@@ -1491,7 +1530,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -1502,6 +1541,9 @@
         <f>VLOOKUP(B8,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>389</v>
       </c>
+      <c r="D8">
+        <v>389</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1509,7 +1551,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1520,8 +1562,11 @@
         <f>VLOOKUP(B9,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>349</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -1532,6 +1577,9 @@
         <f>VLOOKUP(B10,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>369</v>
       </c>
+      <c r="D10">
+        <v>359</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>164</v>
       </c>
@@ -1539,13 +1587,17 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>114</v>
       </c>
       <c r="C11">
         <f>SUM(C2:C10)</f>
-        <v>9741</v>
+        <v>9701</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>9172</v>
       </c>
       <c r="F11" s="2">
         <v>2070</v>
@@ -1554,7 +1606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F12" s="2" t="s">
         <v>108</v>
       </c>
@@ -1562,7 +1614,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F13" s="2">
         <v>2080</v>
       </c>
@@ -1570,7 +1622,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>109</v>
       </c>
@@ -1579,65 +1631,68 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"西部数据 蓝盘 1T, 西部数据 蓝盘 3T, 西部数据 蓝盘 4T, 西部数据 紫盘 1T, 西部数据 紫盘 2T, 西部数据 紫盘 3T, 西部数据 紫盘 4T,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"三星 500G M.2(NVMe) 970 EVO Plus, 三星 500G M.2(NVMe) 970 EVO, 三星 512G M.2(NVMe) 970 EVO Pro, 西部数据 500G M.2(NVMe) Black系列 SN750, 西部数据 500G M.2(NVMe) Blue SN500, 西部数据 500G M.2(NVMe) Black SN750,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Intel i5 9400, Intel i5 9400F, Intel i7 9700, Intel i7 9700F, Intel i7 9700K, Intel i7 9700KF,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"金士顿 DDR4 2666 8G, 金士顿 DDR4 2400 8G, 金士顿 DDR4 2666 16G, 金士顿 DDR4 3200 16G, 金士顿 DDR4 2400 16G,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"九州风神 堡垒240 CPU水冷散热器, 九州风神 水元素240T CPU水冷散热器, 九州风神 大霜塔CPU散热器, 九州风神 大霜塔RGB风冷CPU散热器, 酷冷至尊 T610P CPU风冷散热器,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"微星 MAG B365M MORTAR迫击炮, 技嘉 B365 M AORUS ELITE “小雕” , 微星 B360M MORTAR迫击炮 , 华硕 TUF B360M-PLUS GAMING S ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"华硕 TUF B360M-PLUS GAMING S , 微星 MAG B365M MORTAR迫击炮, 技嘉 B365 M AORUS ELITE “小雕” , 微星 B360M MORTAR迫击炮 , 华硕 PRIME B365-PLUS,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"微星 MAG Z390 TOMAHAWK 战斧导弹, 技嘉 B365 M AORUS ELITE “小雕” , 玩家国度 ROG STRIX B365-G GAMING, 华硕 TUF B360M-PLUS GAMING S ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 B365 M AORUS ELITE “小雕” , 华硕 TUF B360M-PLUS GAMING S , 华硕 TUF B365M-PLUS GAMING, 玩家国度  ROG STRIX B365-F GAMING ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"玩家国度 ROG STRIX Z390-E GAMING , 华硕 PRIME Z390-A , 微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 Z390 AORUS PRO WIFI “电竞专家”, 微星 MAG Z390 TOMAHAWK 战斧导弹, 微星 MEG Z390 ACE 战神板,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"华硕 PRIME Z390-A , 微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 Z390 AORUS MASTER “电竞大师”, 技嘉 Z390 AORUS PRO WIFI “电竞专家”, 玩家国度 ROG MAXIMUS XI HERO (WI-FI) , 玩家国度 ROG STRIX Z390-F GAMING,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"华硕 DUAL-RTX2070-O8G-EVO OC , 技嘉 GeForce RTX 2070 GAMING OC, 铭瑄 MS-GeForce RTX2070 iCraft GM, 七彩虹 Colorful GeForce RTX 2070, 七彩虹 iGame GeForce RTX 2070, 索泰 RTX2070 X-GAMING G3, 微星 魔龙Z GeForce RTX 2070 GAMING Z, 微星 万图师 GeForce RTX 2070 VENTUS,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"EVGA GeForce RTX 2080 Black GAMING, EVGA GeForce RTX 2080 XC Ultra GAMING , 技嘉 AORUS GeForce RTX 2080 小雕, 技嘉 GeForce RTX 2080 GAMING OC, 七彩虹 iGame GeForce RTX 2080 RNG Edition, 微星 黑龙 GeForce RTX 2080 8G DUKE 龙爵, 微星 万图师 GeForce RTX 2080 VENTUS 8G V2,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"技嘉 GeForce RTX 2080 SUPER WINDFORCE OC , 铭瑄 MS-GeForce RTX2080 Super iCraft OC, 七彩虹 Colorful GeForce RTX 2080SUPER Gaming ES, 微星 万图师 GeForce RTX 2080 SUPER VENTUS OC, 铭瑄 MS-GeForce RTX2080 Super iCraft, 七彩虹 iGame GeForce RTX 2080 SUPER Advanced OC, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>"华硕 DUAL-RTX2070S-O8G-EVO OC 2070 SUPER , 华硕 ROG-STRIX-RTX2070S-O8G-GAMING 2070 SUPER, 技嘉 AORUS GeForce RTX 2070 SUPER, 铭瑄 MS-GeForce RTX2070 Super iCraft OC , 七彩虹 iGame GeForce RTX 2070 SUPER Vulcan X OC, 微星 黑龙 GeForce RTX 2070 SUPER DUKE 暗黑龙爵,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>"先马 黑洞 玻璃版 电脑游戏主机箱, 先马 坦克3 电脑主机箱, Tt 挑战者H2 黑色 机箱水冷电脑主机,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>"航嘉 金牌600W WD600K电脑电源, 鑫谷 额定600W GP700G黑金版电源, 安钛克 HCG650金牌全模组 台式机电脑主机机箱电源650W, 安钛克 VP550铜牌 台式机电脑主机机箱电源550W,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>"2070,2070s,2080,2080s,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1647,20 +1702,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -1668,7 +1723,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -1676,7 +1731,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -1687,9 +1742,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1702,20 +1757,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -1723,7 +1778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -1731,7 +1786,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -1742,9 +1797,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1757,26 +1812,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
     <col min="4" max="4" width="9.5" hidden="1" customWidth="1"/>
     <col min="5" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D1">
         <v>20191031</v>
       </c>
@@ -1814,7 +1869,7 @@
         <v>20191112</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1848,8 +1903,11 @@
       <c r="K2">
         <v>1399</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="L2">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1880,8 +1938,11 @@
       <c r="K3">
         <v>1199</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="L3">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1912,8 +1973,11 @@
       <c r="K4">
         <v>2499</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1">
+      <c r="L4">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2008,11 @@
       <c r="K5" s="3">
         <v>2399</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="L5" s="3">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1976,8 +2043,11 @@
       <c r="K6">
         <v>2899</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="L6">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2008,8 +2078,11 @@
       <c r="K7">
         <v>2699</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="L7">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -2040,8 +2113,11 @@
       <c r="K8">
         <v>4899</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="L8">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>94</v>
       </c>
@@ -2069,8 +2145,11 @@
       <c r="K9">
         <v>5399</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="L9">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -2098,8 +2177,11 @@
       <c r="K10">
         <v>4199</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="L10">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>71</v>
       </c>
@@ -2127,8 +2209,11 @@
       <c r="K11">
         <v>3999</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="L11">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -2156,8 +2241,11 @@
       <c r="K12">
         <v>5299</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="L12">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -2185,8 +2273,11 @@
       <c r="K13">
         <v>4999</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="L13">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>64</v>
       </c>
@@ -2214,8 +2305,11 @@
       <c r="K14">
         <v>5299</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="L14">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>56</v>
       </c>
@@ -2243,8 +2337,11 @@
       <c r="K15">
         <v>4599</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="L15">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>60</v>
       </c>
@@ -2272,8 +2369,11 @@
       <c r="K16">
         <v>4199</v>
       </c>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="L16">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>62</v>
       </c>
@@ -2304,8 +2404,11 @@
       <c r="K17">
         <v>6299</v>
       </c>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="L17">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>66</v>
       </c>
@@ -2333,8 +2436,11 @@
       <c r="K18">
         <v>5899</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" s="3" customFormat="1">
+      <c r="L18">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>167</v>
       </c>
@@ -2350,8 +2456,11 @@
       <c r="K19" s="3">
         <v>3999</v>
       </c>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="L19" s="3">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -2379,8 +2488,11 @@
       <c r="K20">
         <v>5499</v>
       </c>
-    </row>
-    <row r="21" spans="2:11">
+      <c r="L20">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>87</v>
       </c>
@@ -2408,8 +2520,11 @@
       <c r="K21">
         <v>5699</v>
       </c>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="L21">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -2437,8 +2552,11 @@
       <c r="K22">
         <v>4999</v>
       </c>
-    </row>
-    <row r="23" spans="2:11">
+      <c r="L22">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>54</v>
       </c>
@@ -2466,8 +2584,11 @@
       <c r="K23">
         <v>5699</v>
       </c>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="L23">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -2495,8 +2616,11 @@
       <c r="K24">
         <v>3899</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" s="3" customFormat="1">
+      <c r="L24">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
@@ -2524,8 +2648,11 @@
       <c r="K25" s="3">
         <v>4699</v>
       </c>
-    </row>
-    <row r="26" spans="2:11">
+      <c r="L25" s="3">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -2553,8 +2680,11 @@
       <c r="K26">
         <v>5899</v>
       </c>
-    </row>
-    <row r="27" spans="2:11">
+      <c r="L26">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>52</v>
       </c>
@@ -2582,8 +2712,11 @@
       <c r="K27">
         <v>5399</v>
       </c>
-    </row>
-    <row r="28" spans="2:11">
+      <c r="L27">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>90</v>
       </c>
@@ -2611,8 +2744,11 @@
       <c r="K28">
         <v>3999</v>
       </c>
-    </row>
-    <row r="29" spans="2:11">
+      <c r="L28">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>78</v>
       </c>
@@ -2640,8 +2776,11 @@
       <c r="K29">
         <v>3999</v>
       </c>
-    </row>
-    <row r="30" spans="2:11">
+      <c r="L29">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>80</v>
       </c>
@@ -2669,8 +2808,11 @@
       <c r="K30">
         <v>5939</v>
       </c>
-    </row>
-    <row r="31" spans="2:11">
+      <c r="L30">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>76</v>
       </c>
@@ -2698,8 +2840,11 @@
       <c r="K31">
         <v>3899</v>
       </c>
-    </row>
-    <row r="32" spans="2:11">
+      <c r="L31">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>74</v>
       </c>
@@ -2727,8 +2872,11 @@
       <c r="K32">
         <v>3299</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>84</v>
       </c>
@@ -2756,8 +2904,11 @@
       <c r="K33">
         <v>5599</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -2785,8 +2936,11 @@
       <c r="K34">
         <v>5599</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -2820,8 +2974,11 @@
       <c r="K35">
         <v>289</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="3" customFormat="1">
+      <c r="L35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2852,8 +3009,11 @@
       <c r="K36" s="3">
         <v>389</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>9</v>
       </c>
@@ -2884,8 +3044,11 @@
       <c r="K37">
         <v>509</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -2916,8 +3079,11 @@
       <c r="K38">
         <v>619</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2951,8 +3117,11 @@
       <c r="K39">
         <v>255</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>11</v>
       </c>
@@ -2983,8 +3152,11 @@
       <c r="K40">
         <v>249</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="3" customFormat="1">
+      <c r="L40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
@@ -3015,8 +3187,11 @@
       <c r="K41" s="3">
         <v>489</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>13</v>
       </c>
@@ -3047,8 +3222,11 @@
       <c r="K42">
         <v>559</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>14</v>
       </c>
@@ -3079,8 +3257,11 @@
       <c r="K43">
         <v>495</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="3" customFormat="1">
+      <c r="L43">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>111</v>
       </c>
@@ -3114,8 +3295,11 @@
       <c r="K44" s="3">
         <v>819</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>15</v>
       </c>
@@ -3146,8 +3330,11 @@
       <c r="K45">
         <v>699</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>19</v>
       </c>
@@ -3178,8 +3365,11 @@
       <c r="K46">
         <v>1329</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>40</v>
       </c>
@@ -3210,8 +3400,11 @@
       <c r="K47">
         <v>709</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -3242,8 +3435,11 @@
       <c r="K48">
         <v>559</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>17</v>
       </c>
@@ -3274,8 +3470,11 @@
       <c r="K49">
         <v>819</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -3297,8 +3496,11 @@
       <c r="K50">
         <v>399</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>120</v>
       </c>
@@ -3317,8 +3519,11 @@
       <c r="K51">
         <v>279</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>123</v>
       </c>
@@ -3337,8 +3542,11 @@
       <c r="K52">
         <v>179</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="3" customFormat="1">
+      <c r="L52">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>124</v>
       </c>
@@ -3357,8 +3565,11 @@
       <c r="K53" s="3">
         <v>229</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>128</v>
       </c>
@@ -3377,8 +3588,11 @@
       <c r="K54">
         <v>239</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -3400,8 +3614,11 @@
       <c r="K55">
         <v>569</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>160</v>
       </c>
@@ -3420,8 +3637,11 @@
       <c r="K56">
         <v>698</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>142</v>
       </c>
@@ -3440,8 +3660,11 @@
       <c r="K57">
         <v>699</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" s="3" customFormat="1">
+      <c r="L57">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>151</v>
       </c>
@@ -3460,8 +3683,11 @@
       <c r="K58" s="3">
         <v>699</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>152</v>
       </c>
@@ -3480,8 +3706,11 @@
       <c r="K59">
         <v>799</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>143</v>
       </c>
@@ -3500,8 +3729,11 @@
       <c r="K60">
         <v>1098</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>155</v>
       </c>
@@ -3520,8 +3752,11 @@
       <c r="K61">
         <v>899</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>144</v>
       </c>
@@ -3540,8 +3775,11 @@
       <c r="K62">
         <v>1649</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>153</v>
       </c>
@@ -3560,8 +3798,11 @@
       <c r="K63">
         <v>739</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>156</v>
       </c>
@@ -3580,8 +3821,11 @@
       <c r="K64">
         <v>1299</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>157</v>
       </c>
@@ -3600,8 +3844,11 @@
       <c r="K65">
         <v>1999</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>154</v>
       </c>
@@ -3620,8 +3867,11 @@
       <c r="K66">
         <v>1649</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>147</v>
       </c>
@@ -3640,8 +3890,11 @@
       <c r="K67">
         <v>1758</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>145</v>
       </c>
@@ -3660,8 +3913,11 @@
       <c r="K68">
         <v>2199</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>148</v>
       </c>
@@ -3680,8 +3936,11 @@
       <c r="K69">
         <v>2898</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>149</v>
       </c>
@@ -3700,8 +3959,11 @@
       <c r="K70">
         <v>2999</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>150</v>
       </c>
@@ -3720,8 +3982,11 @@
       <c r="K71">
         <v>1999</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" s="3" customFormat="1">
+      <c r="L71">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>170</v>
       </c>
@@ -3740,8 +4005,11 @@
       <c r="K72" s="3">
         <v>349</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" s="3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>174</v>
       </c>
@@ -3757,8 +4025,11 @@
       <c r="K73">
         <v>219</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>178</v>
       </c>
@@ -3774,8 +4045,11 @@
       <c r="K74">
         <v>259</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" s="3" customFormat="1">
+      <c r="L74">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>176</v>
       </c>
@@ -3794,8 +4068,11 @@
       <c r="K75" s="3">
         <v>369</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>181</v>
       </c>
@@ -3811,8 +4088,11 @@
       <c r="K76">
         <v>349</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>183</v>
       </c>
@@ -3826,84 +4106,87 @@
         <v>599</v>
       </c>
       <c r="K77">
+        <v>699</v>
+      </c>
+      <c r="L77">
         <v>699</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C38" r:id="rId1"/>
-    <hyperlink ref="C36" r:id="rId2"/>
-    <hyperlink ref="C37" r:id="rId3"/>
-    <hyperlink ref="C35" r:id="rId4"/>
-    <hyperlink ref="C2" r:id="rId5"/>
-    <hyperlink ref="C3" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="C7" r:id="rId10"/>
-    <hyperlink ref="C55" r:id="rId11"/>
-    <hyperlink ref="C56" r:id="rId12"/>
-    <hyperlink ref="C57" r:id="rId13"/>
-    <hyperlink ref="C58" r:id="rId14"/>
-    <hyperlink ref="C59" r:id="rId15"/>
-    <hyperlink ref="C60" r:id="rId16"/>
-    <hyperlink ref="C61" r:id="rId17"/>
-    <hyperlink ref="C62" r:id="rId18"/>
-    <hyperlink ref="C63" r:id="rId19"/>
-    <hyperlink ref="C64" r:id="rId20"/>
-    <hyperlink ref="C65" r:id="rId21"/>
-    <hyperlink ref="C66" r:id="rId22"/>
-    <hyperlink ref="C67" r:id="rId23"/>
-    <hyperlink ref="C68" r:id="rId24"/>
-    <hyperlink ref="C69" r:id="rId25"/>
-    <hyperlink ref="C70" r:id="rId26"/>
-    <hyperlink ref="C71" r:id="rId27"/>
-    <hyperlink ref="C39" r:id="rId28"/>
-    <hyperlink ref="C40" r:id="rId29"/>
-    <hyperlink ref="C41" r:id="rId30"/>
-    <hyperlink ref="C42" r:id="rId31"/>
-    <hyperlink ref="C43" r:id="rId32"/>
-    <hyperlink ref="C24" r:id="rId33"/>
-    <hyperlink ref="C22" r:id="rId34"/>
-    <hyperlink ref="C26" r:id="rId35"/>
-    <hyperlink ref="C27" r:id="rId36"/>
-    <hyperlink ref="C23" r:id="rId37"/>
-    <hyperlink ref="C15" r:id="rId38"/>
-    <hyperlink ref="C13" r:id="rId39"/>
-    <hyperlink ref="C16" r:id="rId40"/>
-    <hyperlink ref="C17" r:id="rId41"/>
-    <hyperlink ref="C14" r:id="rId42"/>
-    <hyperlink ref="C18" r:id="rId43"/>
-    <hyperlink ref="C10" r:id="rId44"/>
-    <hyperlink ref="C32" r:id="rId45"/>
-    <hyperlink ref="C31" r:id="rId46"/>
-    <hyperlink ref="C25" r:id="rId47"/>
-    <hyperlink ref="C29" r:id="rId48"/>
-    <hyperlink ref="C30" r:id="rId49"/>
-    <hyperlink ref="C34" r:id="rId50"/>
-    <hyperlink ref="C33" r:id="rId51"/>
-    <hyperlink ref="C20" r:id="rId52"/>
-    <hyperlink ref="C21" r:id="rId53"/>
-    <hyperlink ref="C8" r:id="rId54"/>
-    <hyperlink ref="C12" r:id="rId55"/>
-    <hyperlink ref="C50" r:id="rId56"/>
-    <hyperlink ref="C51" r:id="rId57"/>
-    <hyperlink ref="C52" r:id="rId58"/>
-    <hyperlink ref="C53" r:id="rId59"/>
-    <hyperlink ref="C54" r:id="rId60"/>
-    <hyperlink ref="C49" r:id="rId61"/>
-    <hyperlink ref="C48" r:id="rId62"/>
-    <hyperlink ref="C47" r:id="rId63"/>
-    <hyperlink ref="C46" r:id="rId64"/>
-    <hyperlink ref="C45" r:id="rId65"/>
-    <hyperlink ref="C44" r:id="rId66"/>
-    <hyperlink ref="C72" r:id="rId67"/>
-    <hyperlink ref="C73" r:id="rId68"/>
-    <hyperlink ref="C74" r:id="rId69"/>
-    <hyperlink ref="C75" r:id="rId70"/>
-    <hyperlink ref="C76" r:id="rId71"/>
-    <hyperlink ref="C77" r:id="rId72"/>
+    <hyperlink ref="C38" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C36" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C37" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C35" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C55" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C56" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C57" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C58" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C59" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C60" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C61" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C62" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="C63" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="C64" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="C65" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="C66" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="C67" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="C68" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="C69" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="C70" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="C71" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C39" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C41" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="C42" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="C43" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="C24" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="C22" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="C26" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="C27" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="C23" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="C15" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="C13" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="C16" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="C17" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="C14" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="C18" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="C10" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="C32" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="C31" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="C25" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="C29" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="C30" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="C34" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="C33" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="C20" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="C21" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="C8" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="C12" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="C50" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="C51" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="C52" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="C53" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="C54" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="C49" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="C48" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="C47" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="C46" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="C45" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="C44" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="C72" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="C73" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="C74" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="C75" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="C76" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="C77" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3916,14 +4199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
@@ -3932,78 +4215,55 @@
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="C1">
-        <v>20191104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C2">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6">
-        <v>2799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -4026,7 +4286,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -4049,7 +4309,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -4072,7 +4332,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -4095,7 +4355,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -4118,7 +4378,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4141,7 +4401,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -4164,7 +4424,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
@@ -4187,7 +4447,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
@@ -4210,7 +4470,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -4233,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -4256,7 +4516,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -4279,7 +4539,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -4302,7 +4562,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -4348,7 +4608,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -4371,7 +4631,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
@@ -4394,7 +4654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -4417,7 +4677,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -4440,7 +4700,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
@@ -4463,7 +4723,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
@@ -4486,7 +4746,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -4509,7 +4769,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -4532,7 +4792,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
@@ -4555,7 +4815,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
@@ -4578,7 +4838,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
@@ -4601,7 +4861,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
@@ -4624,7 +4884,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>5</v>
       </c>
@@ -4647,7 +4907,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
@@ -4670,7 +4930,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -4696,12 +4956,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4714,26 +4974,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -4744,7 +5004,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -4755,7 +5015,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -4766,7 +5026,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -4777,7 +5037,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -4788,7 +5048,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -4799,7 +5059,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -4810,7 +5070,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -4821,7 +5081,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -4832,7 +5092,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -4843,7 +5103,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -4854,7 +5114,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -4865,7 +5125,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -4876,7 +5136,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -4887,7 +5147,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -4898,7 +5158,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -4909,7 +5169,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -4923,23 +5183,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4952,26 +5212,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4982,7 +5242,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4993,7 +5253,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5004,7 +5264,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5015,7 +5275,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5029,11 +5289,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5046,15 +5306,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="11" bestFit="1" customWidth="1"/>
@@ -5062,12 +5322,12 @@
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" hidden="1">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -5081,7 +5341,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" hidden="1">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -5095,7 +5355,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" hidden="1">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -5109,7 +5369,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5123,7 +5383,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -5137,7 +5397,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -5151,7 +5411,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" hidden="1">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -5165,7 +5425,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" hidden="1">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -5179,7 +5439,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" hidden="1">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -5193,7 +5453,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -5207,7 +5467,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -5221,7 +5481,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -5235,7 +5495,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -5249,7 +5509,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" hidden="1">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -5263,7 +5523,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -5277,7 +5537,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25" hidden="1">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -5291,7 +5551,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -5305,7 +5565,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" hidden="1">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -5319,7 +5579,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5333,7 +5593,7 @@
         <v>5399</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" hidden="1">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -5347,7 +5607,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -5361,7 +5621,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" hidden="1">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -5375,7 +5635,7 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25" hidden="1">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -5389,7 +5649,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25" hidden="1">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5403,7 +5663,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -5417,7 +5677,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25" hidden="1">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -5431,13 +5691,13 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.25" hidden="1">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D28">
+  <autoFilter ref="A1:D28" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="2070s"/>
@@ -5449,28 +5709,28 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="C19" r:id="rId3"/>
-    <hyperlink ref="C20" r:id="rId4"/>
-    <hyperlink ref="C16" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C8" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C4" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C24" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C22" r:id="rId15"/>
-    <hyperlink ref="C23" r:id="rId16"/>
-    <hyperlink ref="C27" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C13" r:id="rId19"/>
-    <hyperlink ref="C14" r:id="rId20"/>
-    <hyperlink ref="C2" r:id="rId21"/>
-    <hyperlink ref="C6" r:id="rId22"/>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C24" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="C27" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="C13" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="C14" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="C2" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="C6" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5483,26 +5743,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -5513,7 +5773,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -5524,7 +5784,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -5535,7 +5795,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -5546,7 +5806,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -5560,11 +5820,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5577,26 +5837,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5607,7 +5867,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5618,7 +5878,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5629,7 +5889,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -5640,7 +5900,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -5651,7 +5911,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5665,12 +5925,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5683,26 +5943,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -5713,7 +5973,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5724,7 +5984,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5735,7 +5995,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -5749,10 +6009,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/装机清单.xlsx
+++ b/装机清单.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="229">
   <si>
     <t>Intel i5 9400F</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,20 +779,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?spm=a1z10.5-b-s.w4011-21305094053.80.4ad83c8aMUr2x3&amp;id=558330547066&amp;rn=51a325f0be7fa6c56f039dd560b60079&amp;abbucket=19&amp;skuId=4079871947541</t>
-  </si>
-  <si>
-    <t>苹果X钢化膜11promax全屏11pro覆盖iphoneX八iPhoneXsMax蓝光xr/7/8p/Xs防摔Max全包边iphonexr贴膜X手机plus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://detail.tmall.com/item.htm?spm=a1z10.5-b-s.w4011-21305094053.64.adb6444b4P0fJc&amp;id=604163125578&amp;rn=21972fdb8ba63ae72a03eb215f4f5d73&amp;abbucket=19</t>
   </si>
   <si>
-    <t>卡古驰笔记本电脑支架托架桌面增高便捷式散热器架子折叠桌上升降mac抬高垫高脚垫支撑底座颈椎懒人苹果手提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>满69减5，领津贴每满400减50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,14 +789,6 @@
     <t>https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-15061318068.52.5087124atjvnCU&amp;id=557890457365&amp;rn=6f7462d465ab5794b1fa21c4c128cd89&amp;abbucket=19</t>
   </si>
   <si>
-    <t>蓝月亮洗衣液机洗专用瓶装家用装薰衣草香包邮促销组合装官网正品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领津贴每满400减50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前15分钟减20，前5000名加送一套，每满400减50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -819,10 +800,6 @@
     <t>https://detail.tmall.com/item.htm?spm=a220o.1000855.1998025129.1.1b757e409QDIWv&amp;pvid=a03aef0a-e415-4784-af72-da2087f7675c&amp;pos=1&amp;acm=03054.1003.1.2768562&amp;id=539423008879&amp;scm=1007.16862.95220.23864_0_0&amp;utparam=%7B%22x_hestia_source%22:%2223864%22,%22x_object_type%22:%22item%22,%22x_mt%22:0,%22x_src%22:%2223864%22,%22x_pos%22:1,%22x_pvid%22:%22a03aef0a-e415-4784-af72-da2087f7675c%22,%22x_object_id%22:539423008879%7D&amp;skuId=4086715010804</t>
   </si>
   <si>
-    <t>佳奥坐垫靠垫一体办公室腰靠久坐不累学生椅子加厚孕妇美臀护腰垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>满188减30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,6 +817,34 @@
   </si>
   <si>
     <t>JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本支架，手机钢化膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝月亮洗衣液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳奥坐垫靠垫一体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水星家纺四件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花公子内衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南极人四件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英特尔盲盒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,27 +1070,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="97" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="97" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1543,15 +1548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="7.83203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
@@ -1565,10 +1570,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="A2" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="15">
         <f>MIN(G2,J2)</f>
         <v>2799</v>
       </c>
@@ -1578,54 +1583,54 @@
       <c r="D2" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="17">
         <v>2939</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="20">
         <v>2799</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="18">
         <v>2799</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="20">
         <v>2799</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="C3" t="s">
         <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="15">
+        <v>220</v>
+      </c>
+      <c r="B4" s="13">
         <f>MIN(G4,J4)</f>
         <v>459</v>
       </c>
@@ -1656,9 +1661,9 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="19">
+        <v>219</v>
+      </c>
+      <c r="B5" s="14">
         <f t="shared" ref="B5:B10" si="0">MIN(G5,J5)</f>
         <v>3899</v>
       </c>
@@ -1692,9 +1697,9 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="15">
+        <v>220</v>
+      </c>
+      <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
@@ -1725,9 +1730,9 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="15">
+        <v>220</v>
+      </c>
+      <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>739</v>
       </c>
@@ -1758,9 +1763,9 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="15">
+        <v>221</v>
+      </c>
+      <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>379</v>
       </c>
@@ -1791,9 +1796,9 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="15">
+        <v>220</v>
+      </c>
+      <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>279</v>
       </c>
@@ -1824,9 +1829,9 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="15">
+        <v>220</v>
+      </c>
+      <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
@@ -1849,6 +1854,9 @@
         <v>206</v>
       </c>
       <c r="I10">
+        <v>359</v>
+      </c>
+      <c r="J10">
         <v>359</v>
       </c>
     </row>
@@ -1867,128 +1875,150 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="19">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="14">
         <v>169</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>199</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>179</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>189</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>169</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K13" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:12">
+      <c r="B14" s="13">
+        <v>57.51</v>
+      </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>211</v>
       </c>
       <c r="I14">
-        <v>26</v>
+        <v>43.9</v>
       </c>
       <c r="K14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:12">
+      <c r="B15" s="13">
+        <v>69.33</v>
+      </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I15">
-        <v>43.9</v>
+        <v>99.9</v>
       </c>
       <c r="K15" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:12">
+      <c r="B16" s="13">
+        <v>129.18</v>
+      </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>216</v>
       </c>
       <c r="I16">
-        <v>99.9</v>
+        <v>198</v>
       </c>
       <c r="K16" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="13">
+        <v>157.58000000000001</v>
+      </c>
       <c r="D17" t="s">
-        <v>222</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I17">
-        <v>198</v>
-      </c>
-      <c r="K17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11">
-      <c r="I18">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11">
-      <c r="I19">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11">
-      <c r="I20">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11">
-      <c r="I21">
-        <v>180</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="13">
+        <v>191.82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="13">
+        <v>111.78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="13">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="13">
+        <f>SUM(B13:B20)</f>
+        <v>891.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f>B21+B11</f>
+        <v>10013.200000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2008,12 +2038,11 @@
     <hyperlink ref="E9" r:id="rId14"/>
     <hyperlink ref="E10" r:id="rId15"/>
     <hyperlink ref="H10" r:id="rId16"/>
-    <hyperlink ref="E12" r:id="rId17"/>
-    <hyperlink ref="H12" r:id="rId18"/>
+    <hyperlink ref="E13" r:id="rId17"/>
+    <hyperlink ref="H13" r:id="rId18"/>
     <hyperlink ref="H14" r:id="rId19"/>
     <hyperlink ref="H15" r:id="rId20"/>
     <hyperlink ref="H16" r:id="rId21"/>
-    <hyperlink ref="H17" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2222,7 +2251,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2259,7 +2288,7 @@
         <f>VLOOKUP(B2,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>2399</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="18">
         <v>2749</v>
       </c>
     </row>
@@ -2275,7 +2304,7 @@
         <f>VLOOKUP(B3,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>699</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="18"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6283,7 +6312,7 @@
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" hidden="1">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -6297,7 +6326,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" hidden="1">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -6311,7 +6340,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" hidden="1">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6367,7 +6396,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" hidden="1">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -6381,7 +6410,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" hidden="1">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -6395,7 +6424,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" hidden="1">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -6409,7 +6438,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" hidden="1">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -6437,7 +6466,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" hidden="1">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -6451,7 +6480,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" hidden="1">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -6465,7 +6494,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" hidden="1">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -6479,7 +6508,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" hidden="1">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -6493,7 +6522,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25" hidden="1">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -6521,7 +6550,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" hidden="1">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -6535,7 +6564,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" hidden="1">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -6549,7 +6578,7 @@
         <v>5399</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" hidden="1">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -6577,7 +6606,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" hidden="1">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -6591,7 +6620,7 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25" hidden="1">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -6605,7 +6634,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25" hidden="1">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -6619,7 +6648,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25" hidden="1">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -6633,7 +6662,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25" hidden="1">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -6647,7 +6676,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.25" hidden="1">
+    <row r="28" spans="1:4" hidden="1">
       <c r="C28" t="s">
         <v>168</v>
       </c>

--- a/装机清单.xlsx
+++ b/装机清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\PublicDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87BDCB0-F07C-4171-9406-1EB11B544949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="4060" windowWidth="20740" windowHeight="11640" tabRatio="759"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1111" sheetId="18" r:id="rId1"/>
@@ -23,16 +29,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">显卡!$A$1:$D$28</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -851,7 +857,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1075,6 +1081,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,11 +1099,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="97" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="117">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1144,74 +1151,73 @@
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1547,19 +1553,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="13" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
@@ -1569,11 +1575,11 @@
     <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <f>MIN(G2,J2)</f>
         <v>2799</v>
       </c>
@@ -1583,50 +1589,50 @@
       <c r="D2" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="18">
         <v>2939</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="15">
         <v>2799</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="19">
         <v>2799</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="15">
         <v>2799</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="E3" s="20"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>220</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11">
         <f>SUM(B2:B10)</f>
         <v>9122</v>
@@ -1874,10 +1880,10 @@
         <v>9222</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="13">
         <v>57.51</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="13">
         <v>69.33</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="13">
         <v>129.18</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="13">
         <v>157.58000000000001</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="13">
         <v>191.82</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="13">
         <v>111.78</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="13">
         <v>5</v>
       </c>
@@ -1995,13 +2001,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="13">
         <f>SUM(B13:B20)</f>
         <v>891.2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <f>B21+B11</f>
         <v>10013.200000000001</v>
@@ -2009,40 +2015,40 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://item.jd.com/100005600582.html"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="H3" r:id="rId4" display="https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-14537059442.52.64c47001Vy9PFE&amp;id=578380770561&amp;rn=7a28a74c96281350b55cac430fcde111&amp;abbucket=19&amp;skuId=4205643269899"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="H4" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="H5" r:id="rId8"/>
-    <hyperlink ref="E6" r:id="rId9"/>
-    <hyperlink ref="H6" r:id="rId10"/>
-    <hyperlink ref="E7" r:id="rId11"/>
-    <hyperlink ref="H7" r:id="rId12"/>
-    <hyperlink ref="E8" r:id="rId13"/>
-    <hyperlink ref="E9" r:id="rId14"/>
-    <hyperlink ref="E10" r:id="rId15"/>
-    <hyperlink ref="H10" r:id="rId16"/>
-    <hyperlink ref="E13" r:id="rId17"/>
-    <hyperlink ref="H13" r:id="rId18"/>
-    <hyperlink ref="H14" r:id="rId19"/>
-    <hyperlink ref="H15" r:id="rId20"/>
-    <hyperlink ref="H16" r:id="rId21"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://item.jd.com/100005600582.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H3" r:id="rId4" display="https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-14537059442.52.64c47001Vy9PFE&amp;id=578380770561&amp;rn=7a28a74c96281350b55cac430fcde111&amp;abbucket=19&amp;skuId=4205643269899" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2055,26 +2061,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2121,10 +2127,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2137,20 +2143,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -2177,9 +2183,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2192,20 +2198,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -2232,9 +2238,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2247,23 +2253,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>191</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2288,11 +2294,11 @@
         <f>VLOOKUP(B2,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>2399</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="19">
         <v>2749</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -2304,7 +2310,7 @@
         <f>VLOOKUP(B3,基础信息!$B:$O,$G$1,FALSE)</f>
         <v>699</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -2418,7 +2424,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2433,7 +2439,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2481,7 +2487,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F13" s="2">
         <v>2080</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>109</v>
       </c>
@@ -2503,63 +2509,63 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"西部数据 蓝盘 1T, 西部数据 蓝盘 3T, 西部数据 蓝盘 4T, 西部数据 紫盘 1T, 西部数据 紫盘 2T, 西部数据 紫盘 3T, 西部数据 紫盘 4T,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"三星 500G M.2(NVMe) 970 EVO Plus, 三星 500G M.2(NVMe) 970 EVO, 三星 512G M.2(NVMe) 970 EVO Pro, 西部数据 500G M.2(NVMe) Black系列 SN750, 西部数据 500G M.2(NVMe) Blue SN500, 西部数据 500G M.2(NVMe) Black SN750,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Intel i5 9400, Intel i5 9400F, Intel i7 9700, Intel i7 9700F, Intel i7 9700K, Intel i7 9700KF,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"金士顿 DDR4 2666 8G, 金士顿 DDR4 2400 8G, 金士顿 DDR4 2666 16G, 金士顿 DDR4 3200 16G, 金士顿 DDR4 2400 16G,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"九州风神 堡垒240 CPU水冷散热器, 九州风神 水元素240T CPU水冷散热器, 九州风神 大霜塔CPU散热器, 九州风神 大霜塔RGB风冷CPU散热器, 酷冷至尊 T610P CPU风冷散热器,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"微星 MAG B365M MORTAR迫击炮, 技嘉 B365 M AORUS ELITE “小雕” , 微星 B360M MORTAR迫击炮 , 华硕 TUF B360M-PLUS GAMING S ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"华硕 TUF B360M-PLUS GAMING S , 微星 MAG B365M MORTAR迫击炮, 技嘉 B365 M AORUS ELITE “小雕” , 微星 B360M MORTAR迫击炮 , 华硕 PRIME B365-PLUS,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>"微星 MAG Z390 TOMAHAWK 战斧导弹, 技嘉 B365 M AORUS ELITE “小雕” , 玩家国度 ROG STRIX B365-G GAMING, 华硕 TUF B360M-PLUS GAMING S ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>"微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 B365 M AORUS ELITE “小雕” , 华硕 TUF B360M-PLUS GAMING S , 华硕 TUF B365M-PLUS GAMING, 玩家国度  ROG STRIX B365-F GAMING ,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>"玩家国度 ROG STRIX Z390-E GAMING , 华硕 PRIME Z390-A , 微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 Z390 AORUS PRO WIFI “电竞专家”, 微星 MAG Z390 TOMAHAWK 战斧导弹, 微星 MEG Z390 ACE 战神板,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>"华硕 PRIME Z390-A , 微星 MPG Z390 GAMING PRO CARBON 暗黑板, 技嘉 Z390 AORUS MASTER “电竞大师”, 技嘉 Z390 AORUS PRO WIFI “电竞专家”, 玩家国度 ROG MAXIMUS XI HERO (WI-FI) , 玩家国度 ROG STRIX Z390-F GAMING,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11" xr:uid="{00000000-0002-0000-0100-00000B000000}">
       <formula1>"华硕 DUAL-RTX2070-O8G-EVO OC , 技嘉 GeForce RTX 2070 GAMING OC, 铭瑄 MS-GeForce RTX2070 iCraft GM, 七彩虹 Colorful GeForce RTX 2070, 七彩虹 iGame GeForce RTX 2070, 索泰 RTX2070 X-GAMING G3, 微星 魔龙Z GeForce RTX 2070 GAMING Z, 微星 万图师 GeForce RTX 2070 VENTUS,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13" xr:uid="{00000000-0002-0000-0100-00000C000000}">
       <formula1>"EVGA GeForce RTX 2080 Black GAMING, EVGA GeForce RTX 2080 XC Ultra GAMING , 技嘉 AORUS GeForce RTX 2080 小雕, 技嘉 GeForce RTX 2080 GAMING OC, 七彩虹 iGame GeForce RTX 2080 RNG Edition, 微星 黑龙 GeForce RTX 2080 8G DUKE 龙爵, 微星 万图师 GeForce RTX 2080 VENTUS 8G V2,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14" xr:uid="{00000000-0002-0000-0100-00000D000000}">
       <formula1>"技嘉 GeForce RTX 2080 SUPER WINDFORCE OC , 铭瑄 MS-GeForce RTX2080 Super iCraft OC, 七彩虹 Colorful GeForce RTX 2080SUPER Gaming ES, 微星 万图师 GeForce RTX 2080 SUPER VENTUS OC, 铭瑄 MS-GeForce RTX2080 Super iCraft, 七彩虹 iGame GeForce RTX 2080 SUPER Advanced OC, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12" xr:uid="{00000000-0002-0000-0100-00000E000000}">
       <formula1>"华硕 DUAL-RTX2070S-O8G-EVO OC 2070 SUPER , 华硕 ROG-STRIX-RTX2070S-O8G-GAMING 2070 SUPER, 技嘉 AORUS GeForce RTX 2070 SUPER, 铭瑄 MS-GeForce RTX2070 Super iCraft OC , 七彩虹 iGame GeForce RTX 2070 SUPER Vulcan X OC, 微星 黑龙 GeForce RTX 2070 SUPER DUKE 暗黑龙爵,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-00000F000000}">
       <formula1>"先马 黑洞 玻璃版 电脑游戏主机箱, 先马 坦克3 电脑主机箱, Tt 挑战者H2 黑色 机箱水冷电脑主机,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0100-000010000000}">
       <formula1>"航嘉 金牌600W WD600K电脑电源, 鑫谷 额定600W GP700G黑金版电源, 安钛克 HCG650金牌全模组 台式机电脑主机机箱电源650W, 安钛克 VP550铜牌 台式机电脑主机机箱电源550W,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10" xr:uid="{00000000-0002-0000-0100-000011000000}">
       <formula1>"2070,2070s,2080,2080s,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2569,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2577,18 +2583,18 @@
       <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
     <col min="4" max="4" width="9.5" hidden="1" customWidth="1"/>
     <col min="5" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D1">
         <v>20191031</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>20191112</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1">
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>94</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>71</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>64</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>56</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>62</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>66</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="3" customFormat="1">
+    <row r="19" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>167</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>87</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>54</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="3" customFormat="1">
+    <row r="25" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>52</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>5399</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>90</v>
       </c>
@@ -3586,7 +3592,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>78</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>80</v>
       </c>
@@ -3656,7 +3662,7 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>76</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>74</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>84</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="3" customFormat="1">
+    <row r="36" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +3881,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>9</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>11</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="3" customFormat="1">
+    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>13</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>14</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="3" customFormat="1">
+    <row r="44" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>111</v>
       </c>
@@ -4185,7 +4191,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>15</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>19</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>40</v>
       </c>
@@ -4299,7 +4305,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -4337,7 +4343,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>17</v>
       </c>
@@ -4375,7 +4381,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>120</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>123</v>
       </c>
@@ -4456,7 +4462,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="3" customFormat="1">
+    <row r="53" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>124</v>
       </c>
@@ -4482,7 +4488,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>128</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>160</v>
       </c>
@@ -4563,7 +4569,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>142</v>
       </c>
@@ -4589,7 +4595,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="3" customFormat="1">
+    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>151</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>152</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>143</v>
       </c>
@@ -4667,7 +4673,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>155</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>144</v>
       </c>
@@ -4719,7 +4725,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>153</v>
       </c>
@@ -4745,7 +4751,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>156</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>157</v>
       </c>
@@ -4797,7 +4803,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>154</v>
       </c>
@@ -4823,7 +4829,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>147</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>145</v>
       </c>
@@ -4875,7 +4881,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>148</v>
       </c>
@@ -4901,7 +4907,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>149</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>150</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="3" customFormat="1">
+    <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>170</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>174</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>178</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="3" customFormat="1">
+    <row r="75" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>176</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>181</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>183</v>
       </c>
@@ -5100,78 +5106,78 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C38" r:id="rId1"/>
-    <hyperlink ref="C36" r:id="rId2"/>
-    <hyperlink ref="C37" r:id="rId3"/>
-    <hyperlink ref="C35" r:id="rId4"/>
-    <hyperlink ref="C2" r:id="rId5"/>
-    <hyperlink ref="C3" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="C7" r:id="rId10"/>
-    <hyperlink ref="C55" r:id="rId11"/>
-    <hyperlink ref="C56" r:id="rId12"/>
-    <hyperlink ref="C57" r:id="rId13"/>
-    <hyperlink ref="C58" r:id="rId14"/>
-    <hyperlink ref="C59" r:id="rId15"/>
-    <hyperlink ref="C60" r:id="rId16"/>
-    <hyperlink ref="C61" r:id="rId17"/>
-    <hyperlink ref="C62" r:id="rId18"/>
-    <hyperlink ref="C63" r:id="rId19"/>
-    <hyperlink ref="C64" r:id="rId20"/>
-    <hyperlink ref="C65" r:id="rId21"/>
-    <hyperlink ref="C66" r:id="rId22"/>
-    <hyperlink ref="C67" r:id="rId23"/>
-    <hyperlink ref="C68" r:id="rId24"/>
-    <hyperlink ref="C69" r:id="rId25"/>
-    <hyperlink ref="C70" r:id="rId26"/>
-    <hyperlink ref="C71" r:id="rId27"/>
-    <hyperlink ref="C39" r:id="rId28"/>
-    <hyperlink ref="C40" r:id="rId29"/>
-    <hyperlink ref="C41" r:id="rId30"/>
-    <hyperlink ref="C42" r:id="rId31"/>
-    <hyperlink ref="C43" r:id="rId32"/>
-    <hyperlink ref="C24" r:id="rId33"/>
-    <hyperlink ref="C22" r:id="rId34"/>
-    <hyperlink ref="C26" r:id="rId35"/>
-    <hyperlink ref="C27" r:id="rId36"/>
-    <hyperlink ref="C23" r:id="rId37"/>
-    <hyperlink ref="C15" r:id="rId38"/>
-    <hyperlink ref="C13" r:id="rId39"/>
-    <hyperlink ref="C16" r:id="rId40"/>
-    <hyperlink ref="C17" r:id="rId41"/>
-    <hyperlink ref="C14" r:id="rId42"/>
-    <hyperlink ref="C18" r:id="rId43"/>
-    <hyperlink ref="C10" r:id="rId44"/>
-    <hyperlink ref="C32" r:id="rId45"/>
-    <hyperlink ref="C31" r:id="rId46"/>
-    <hyperlink ref="C25" r:id="rId47"/>
-    <hyperlink ref="C29" r:id="rId48"/>
-    <hyperlink ref="C30" r:id="rId49"/>
-    <hyperlink ref="C34" r:id="rId50"/>
-    <hyperlink ref="C33" r:id="rId51"/>
-    <hyperlink ref="C20" r:id="rId52"/>
-    <hyperlink ref="C21" r:id="rId53"/>
-    <hyperlink ref="C8" r:id="rId54"/>
-    <hyperlink ref="C12" r:id="rId55"/>
-    <hyperlink ref="C50" r:id="rId56"/>
-    <hyperlink ref="C51" r:id="rId57"/>
-    <hyperlink ref="C52" r:id="rId58"/>
-    <hyperlink ref="C53" r:id="rId59"/>
-    <hyperlink ref="C54" r:id="rId60"/>
-    <hyperlink ref="C49" r:id="rId61"/>
-    <hyperlink ref="C48" r:id="rId62"/>
-    <hyperlink ref="C47" r:id="rId63"/>
-    <hyperlink ref="C46" r:id="rId64"/>
-    <hyperlink ref="C45" r:id="rId65"/>
-    <hyperlink ref="C44" r:id="rId66"/>
-    <hyperlink ref="C72" r:id="rId67"/>
-    <hyperlink ref="C73" r:id="rId68"/>
-    <hyperlink ref="C74" r:id="rId69"/>
-    <hyperlink ref="C75" r:id="rId70"/>
-    <hyperlink ref="C76" r:id="rId71"/>
-    <hyperlink ref="C77" r:id="rId72"/>
+    <hyperlink ref="C38" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C36" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C37" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C35" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C55" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C56" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C57" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C58" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C59" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C60" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C61" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C62" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C63" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C64" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="C65" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C66" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="C67" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C68" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="C69" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C70" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="C71" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C39" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="C41" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="C42" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="C43" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="C24" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="C22" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="C26" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="C27" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="C23" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="C15" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="C13" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="C16" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="C17" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="C14" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="C18" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="C10" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="C32" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="C31" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="C25" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="C29" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="C30" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="C34" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="C33" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="C20" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="C21" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="C8" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="C12" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="C50" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="C51" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="C52" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="C53" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="C54" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="C49" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="C48" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="C47" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="C46" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="C45" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="C44" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="C72" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="C73" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="C74" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="C75" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="C76" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="C77" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5184,14 +5190,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
@@ -5200,7 +5206,7 @@
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5216,7 +5222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5224,7 +5230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5232,7 +5238,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -5294,7 +5300,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5369,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
@@ -5455,7 +5461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -5478,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -5524,7 +5530,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -5547,7 +5553,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -5662,7 +5668,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -5777,7 +5783,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>5</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -5941,12 +5947,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5959,26 +5965,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -6033,7 +6039,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -6044,7 +6050,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -6121,7 +6127,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -6143,7 +6149,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -6154,7 +6160,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -6168,23 +6174,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6197,26 +6203,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6227,7 +6233,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6249,7 +6255,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6274,11 +6280,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6291,15 +6297,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="11" bestFit="1" customWidth="1"/>
@@ -6307,12 +6313,12 @@
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -6326,7 +6332,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -6396,7 +6402,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -6410,7 +6416,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -6424,7 +6430,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -6438,7 +6444,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -6452,7 +6458,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -6494,7 +6500,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -6508,7 +6514,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -6550,7 +6556,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>5899</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>5399</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -6592,7 +6598,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -6648,7 +6654,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -6662,7 +6668,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -6676,13 +6682,13 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D28">
+  <autoFilter ref="A1:D28" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="2070s"/>
@@ -6694,28 +6700,28 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="C19" r:id="rId3"/>
-    <hyperlink ref="C20" r:id="rId4"/>
-    <hyperlink ref="C16" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C8" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C4" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C24" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C22" r:id="rId15"/>
-    <hyperlink ref="C23" r:id="rId16"/>
-    <hyperlink ref="C27" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C13" r:id="rId19"/>
-    <hyperlink ref="C14" r:id="rId20"/>
-    <hyperlink ref="C2" r:id="rId21"/>
-    <hyperlink ref="C6" r:id="rId22"/>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C24" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="C27" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="C13" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="C14" r:id="rId20" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="C2" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="C6" r:id="rId22" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6728,26 +6734,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -6758,7 +6764,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -6805,11 +6811,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6822,26 +6828,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1">
         <v>20191104</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6852,7 +6858,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -6863,7 +6869,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -6874,7 +6880,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -6885,7 +6891,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -6896,7 +6902,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -6910,12 +6916,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
